--- a/OnBoard/data/haul_order.xlsx
+++ b/OnBoard/data/haul_order.xlsx
@@ -1,602 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bcb1d8ec36d6377/Lezioni/Lavoro/Solemon/AtSeaData/2024/OnBoard_2024_ENA/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D53EB7CF-4900-4A26-8EBF-5CB538DA4E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6463856C-242F-48CC-B128-CD4D18C4715E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$69</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="188">
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>haul</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>inizio</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>peso_rapido_A</t>
-  </si>
-  <si>
-    <t>peso_rapido_D</t>
-  </si>
-  <si>
-    <t>peso_subcampione_a</t>
-  </si>
-  <si>
-    <t>peso_subcampione_b</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>cavo 90 passi (un po' di più al rapA). Giri motore 870.</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>cavo 135 passi, qualche metro in più al rap A. Giri motore 950</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>cavo 90 passi giri motore 920, parte sogliole rapi a misurate a bordo</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>cavo 150 passi giri motore 920</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>cavo 165 passi, qualche metro in più  al rap A. Giri motore 910. Seguite le tracce del 2020 e 2021</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>cavo 60 passi giri motore 920  tirati 15 minuti per evitare saccata troppo grossa riparati entrambi i rapidi rete e foderone</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>cavo 90 passi giri motore 980</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>cavo 150npassi giri motore 920</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>cavo 180 passi giri motore 860</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>cavo 90 passi (un po' di più  al rap a). Giri motore 980. Cala prima dell'alba. Pezzo di tronco nella bocca del rap A, per questo pescata ridotta.</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>cavo 90 passi giri motore ridotto a 15 per evitare saccate troppo grosse</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>aggiunta mezza linguetta ai denti. Cavo 210 passi, dato qualche metro in più  al rap A</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>cavo 210 passi; qualche metro in più  al rapido A. Cala prima dell'alba.</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Giri motore 660. Corrente forte che spinge la barca. Traccia sul pc della barca iniziata 6 minuti prima, più  affidabile la traccia del tablet. Vento da NE, onda da NO.</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Giri motore 1060. Onda da NE e vento da NO, mare ingrossato (1  m)</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Giri motore 1040. Traccia plot barca iniziata quasi 10 minuti prima, più fedele la traccia nel tablet</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Giri motore 740. Molta corrente. Rete rap A salpata con buchi, riparati.</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Giri motore 1030. Deviata la rotta l'ultimo minuto e mezzo</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Giri motore 930. Onda da NO. Rotta spostata per la presenza di una presura sul punto 43 42,656 13 36,690.</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>cavo 90 passi (un po di più al rap A). Giri motore 930</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Giri motore 980. Mare meno mosso. Qualche dente storto di entrambi i rapidi</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>cavo 75 passi; 10 m di cavo in più al rap D. No denti (dietro margine le slitte)</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>cavo 210 passi. Aggiunto 1 cm di denti. Rapido D 10 m in più di cavo</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Giri motore 920. Tolto coltello e ridotta durata a 20 minuti perché fondo ad Anadara. Mare mosso, 0,9 m d'onda</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Giri motore 780. Molta corrente. Mare mosso, 0,9 m d'onda. Rimessi i denti (1 linguetta)</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Giri motore 990. Mare mosso, 1 m d'onda. Presa come riferimento la traccia del 2023, nell'area tra la traccia del 2020 e le altre tracce ci sono molte afferrature. Non calare mai lì in mezzo !</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>rapA calato 5 minuti prima del D con velocità 4,5 kn. Cavo 210 passi; 10 m in più al rap A. Cala conclusa 5 minuti prima perché superate le tracce dei survey precedenti avendo perso tempo all'inizio per sistemare rete rap D</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Cavo 90 passi giri motore 1070.</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Giri motore 1050. Mare mosso, onda da 1 m. Rap A salpato storto</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>cavo 90 passi (un po' di più al rap A). Giri motore 960. Sentita botta dopo 6 minuti di cala: rap D presi pezzi di tronchi, storto solo qualche dente. Ore 15:22 avvistati segnali reti da posta lungo il percorso, cambio rotta a 340°, tenuta questa rotta per il resto della cala.</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>cavo 75 passi (di più al rap A). Giri motore 890. Rap A raddrizzato coltello dopo la cala</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>cavo 90 passi. Denti fatti sporgere di una linguetta. Cala serale. Giri motore 850, molta corrente. Vivaio non segnalato: 45 29,238 12 46,539; 45 28,897 12 45,908; 45 28,631 12 46,199; 45 29,048 12 46,710</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>cavo 90 passi (un po più cavo al rap A). Giri al motore 940. Denti spostati a filo con le slitte.</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>45bis</t>
-  </si>
-  <si>
-    <t>cavo 90 passi (un po' di più al rap a). Giri motore 890</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>cavo 200 giri 930</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>cavo 120 passi giri motore 910</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>cavo 75 passi. Giri motore 920. Mare mosso 0.9-1 m d'onda.</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>cavo 120 passi. No denti.</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>cavo 135 passi (un po' di più al rap A). Giri motore 860. Cambi di rotta lungo la traccia per evitare di concludera la strascicata su punto critico (rotta iniziale 121°, modificata a 110°, poi impostata a 125°, infine modificata a 111°</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Cavo 250 passi giri motore 1080.  Fatta deviazione a inizio cala per evitare peschereccio</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>cavo 135 passi, più  abbondante per il rap A. Cala serale. Durata ridotta per completare la programmazione giornaliera. Giri motore 930.</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>cavo 165 passi, qualche metro in più a rap A. aumentato num di giri motore (890) per tenere la velocità. Rete rap A ricucita in alcuni punti</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>cavo 180  passi giri motore  910 nuova traccia del 2023 preso cavo d acciaio sul rapido D commerciale valido ma discar e litter presi dal rapido A</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>cavo 90 passi (di più al rap A). Giri motore 890. Corretta la posizione alle 7:15 accostandoci alle tracce precedenti. Traccia interrotta in ritardo, prosegue più  del dovuto.</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>cavo 120 passi, più  lungo quello del rap A. Giri motore 900. Durata della cala ridotta per completare il programma della giornata. Cala dopo il tramonto</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>cavo 135 passi (di più al rap A). Giri motore 880</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>cavo 165 passi, qualche metro in più a rap A. Aggiunta mezza linguetta ai denti.</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>cavo 135 passi giri motore 870</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>cavo 135 passi, qualche metro in più al rap A. Giri motore 920. Durata ridotta per completare le stazioni della giornata</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>giri motore 890</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>cavo 120 passi giri motore 930</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>cavo 150 passi giri motore 950</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>cavo 90 passi giri motore tirati solo 15 minuti per evitare saccate troppo grosse</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>cavo 60 passi giri motore 850 cala ridotta a 15 minuti per evitare danni ai rapidi</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>cavo 90 passi giri motore 800 ridotto a 15 per evitare saccate troppo grosse</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>cavo 90 passi; 10 m in più al rap D. No denti (dietro margine slitte)</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Giri motore 1040. Mare mosso, 1 m d'onda.</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Cavo 90 passi giri motore 1040. Il rapido A ha dato uno scossone in cala. Salpato prima per presenza area di scarico materiali portuali.</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>cavo 270 passi giri motore 960</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Cavo 105 passi giri motore 800</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Cavo 90 giri motore 800 Rotta modificata per presenza nuovo vivaio cozze</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Cavo 330 passi giri motore 900</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>cavo 90 passi giri 840 preso segnale</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>cavo 250 giri 900</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>cavo 60 passi giri motore 910</t>
-  </si>
-  <si>
-    <t>Giri motore 1000</t>
-  </si>
-  <si>
-    <t>ENA</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>ENA_FRA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,21 +67,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -697,7 +111,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -731,7 +145,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -766,10 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -942,93 +354,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="1.44140625" customWidth="1"/>
-    <col min="5" max="6" width="20.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>haul</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>inizio</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>fine</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DB</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>peso_rapido_A</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>peso_rapido_D</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>peso_subcampione_a</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>peso_subcampione_b</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2">
         <v>45604</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>cavo 90 passi (un po' di più al rapA). Giri motore 870.</t>
+        </is>
       </c>
       <c r="E2" s="2">
-        <v>1.2569444444452531</v>
+        <v>0.2569444444452529</v>
       </c>
       <c r="F2" s="2">
-        <v>1.277777777777374</v>
+        <v>0.2777777777773736</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J2">
         <v>100</v>
@@ -1036,40 +475,45 @@
       <c r="K2">
         <v>70</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
       </c>
       <c r="N2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2">
         <v>45602</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>cavo 135 passi, qualche metro in più al rap A. Giri motore 950</t>
+        </is>
       </c>
       <c r="E3" s="2">
-        <v>1.611111111109494</v>
+        <v>0.6111111111094942</v>
       </c>
       <c r="F3" s="2">
-        <v>1.6319444444452531</v>
+        <v>0.6319444444452529</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J3">
         <v>76</v>
@@ -1077,40 +521,45 @@
       <c r="K3">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>20</v>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
       </c>
       <c r="N3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2">
         <v>45605</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cavo 90 passi giri motore 920, parte sogliole rapi a misurate a bordo</t>
+        </is>
       </c>
       <c r="E4" s="2">
-        <v>1.340277777777374</v>
+        <v>0.3402777777773736</v>
       </c>
       <c r="F4" s="2">
-        <v>1.361111111109494</v>
+        <v>0.3611111111094942</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J4">
         <v>55</v>
@@ -1118,40 +567,45 @@
       <c r="K4">
         <v>50</v>
       </c>
-      <c r="L4" t="s">
-        <v>23</v>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
       </c>
       <c r="N4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2">
         <v>45605</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>cavo 150 passi giri motore 920</t>
+        </is>
       </c>
       <c r="E5" s="2">
-        <v>1.5131944444437979</v>
+        <v>0.5131944444437977</v>
       </c>
       <c r="F5" s="2">
-        <v>1.5340277777795559</v>
+        <v>0.5340277777795563</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J5">
         <v>40</v>
@@ -1159,40 +613,45 @@
       <c r="K5">
         <v>50</v>
       </c>
-      <c r="L5" t="s">
-        <v>26</v>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
       </c>
       <c r="N5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2">
         <v>45602</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>cavo 165 passi, qualche metro in più  al rap A. Giri motore 910. Seguite le tracce del 2020 e 2021</t>
+        </is>
       </c>
       <c r="E6" s="2">
-        <v>1.479861111110949</v>
+        <v>0.4798611111109494</v>
       </c>
       <c r="F6" s="2">
-        <v>1.5006944444430701</v>
+        <v>0.5006944444430701</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J6">
         <v>50</v>
@@ -1200,37 +659,45 @@
       <c r="K6">
         <v>50</v>
       </c>
-      <c r="L6" t="s">
-        <v>29</v>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
       </c>
       <c r="N6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="2">
         <v>45607</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cavo 60 passi giri motore 920  tirati 15 minuti per evitare saccata troppo grossa riparati entrambi i rapidi rete e foderone</t>
+        </is>
       </c>
       <c r="E7" s="2">
-        <v>1.4944444444445251</v>
+        <v>0.4944444444445253</v>
       </c>
       <c r="F7" s="2">
-        <v>1.5048611111124051</v>
+        <v>0.5048611111124046</v>
       </c>
       <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J7">
         <v>1244</v>
@@ -1238,40 +705,45 @@
       <c r="K7">
         <v>1100</v>
       </c>
-      <c r="L7" t="s">
-        <v>32</v>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>12.7</t>
+        </is>
       </c>
       <c r="N7">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="2">
         <v>45606</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>cavo 90 passi giri motore 980</t>
+        </is>
       </c>
       <c r="E8" s="2">
-        <v>1.4381944444430701</v>
+        <v>0.4381944444430701</v>
       </c>
       <c r="F8" s="2">
-        <v>1.459027777778829</v>
+        <v>0.4590277777788287</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J8">
         <v>166</v>
@@ -1279,40 +751,45 @@
       <c r="K8">
         <v>230</v>
       </c>
-      <c r="L8" t="s">
-        <v>35</v>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
       </c>
       <c r="N8">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="2">
         <v>45605</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>cavo 150npassi giri motore 920</t>
+        </is>
       </c>
       <c r="E9" s="2">
-        <v>1.689583333332848</v>
+        <v>0.6895833333328483</v>
       </c>
       <c r="F9" s="2">
-        <v>1.7104166666649689</v>
+        <v>0.7104166666649689</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J9">
         <v>16</v>
@@ -1320,40 +797,45 @@
       <c r="K9">
         <v>22</v>
       </c>
-      <c r="L9" t="s">
-        <v>38</v>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="N9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2">
         <v>45606</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>cavo 180 passi giri motore 860</t>
+        </is>
       </c>
       <c r="E10" s="2">
-        <v>1.263888888890506</v>
+        <v>0.2638888888905058</v>
       </c>
       <c r="F10" s="2">
-        <v>1.2743055555547469</v>
+        <v>0.2743055555547471</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>186</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J10">
         <v>140</v>
@@ -1361,40 +843,45 @@
       <c r="K10">
         <v>302</v>
       </c>
-      <c r="L10" t="s">
-        <v>41</v>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
       </c>
       <c r="N10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="2">
         <v>45603</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>cavo 90 passi (un po' di più  al rap a). Giri motore 980. Cala prima dell'alba. Pezzo di tronco nella bocca del rap A, per questo pescata ridotta.</t>
+        </is>
       </c>
       <c r="E11" s="2">
-        <v>1.2104166666649689</v>
+        <v>0.2104166666649689</v>
       </c>
       <c r="F11" s="2">
-        <v>1.231250000000728</v>
+        <v>0.2312500000007276</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>186</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J11">
         <v>14</v>
@@ -1402,40 +889,45 @@
       <c r="K11">
         <v>46</v>
       </c>
-      <c r="L11" t="s">
-        <v>44</v>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
       </c>
       <c r="N11">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="2">
         <v>45607</v>
       </c>
-      <c r="B12" t="s">
-        <v>45</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>46</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>cavo 90 passi giri motore ridotto a 15 per evitare saccate troppo grosse</t>
+        </is>
       </c>
       <c r="E12" s="2">
-        <v>1.652777777777374</v>
+        <v>0.6527777777773736</v>
       </c>
       <c r="F12" s="2">
-        <v>1.6631944444452531</v>
+        <v>0.6631944444452529</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
-        <v>186</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J12">
         <v>192</v>
@@ -1443,40 +935,45 @@
       <c r="K12">
         <v>260</v>
       </c>
-      <c r="L12" t="s">
-        <v>47</v>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
       </c>
       <c r="N12">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="2">
         <v>45602</v>
       </c>
-      <c r="B13" t="s">
-        <v>48</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>49</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>aggiunta mezza linguetta ai denti. Cavo 210 passi, dato qualche metro in più  al rap A</t>
+        </is>
       </c>
       <c r="E13" s="2">
-        <v>1.296527777776646</v>
+        <v>0.296527777776646</v>
       </c>
       <c r="F13" s="2">
-        <v>1.3069444444445251</v>
+        <v>0.3069444444445253</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J13">
         <v>306</v>
@@ -1484,40 +981,45 @@
       <c r="K13">
         <v>480</v>
       </c>
-      <c r="L13" t="s">
-        <v>50</v>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>9.4</t>
+        </is>
       </c>
       <c r="N13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="2">
         <v>45602</v>
       </c>
-      <c r="B14" t="s">
-        <v>51</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>52</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>cavo 210 passi; qualche metro in più  al rapido A. Cala prima dell'alba.</t>
+        </is>
       </c>
       <c r="E14" s="2">
-        <v>1.215277777777374</v>
+        <v>0.2152777777773736</v>
       </c>
       <c r="F14" s="2">
-        <v>1.2256944444452531</v>
+        <v>0.2256944444452529</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
-        <v>185</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J14">
         <v>240</v>
@@ -1525,40 +1027,45 @@
       <c r="K14">
         <v>360</v>
       </c>
-      <c r="L14" t="s">
-        <v>53</v>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="N14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="2">
         <v>45607</v>
       </c>
-      <c r="B15" t="s">
-        <v>54</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>55</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Giri motore 660. Corrente forte che spinge la barca. Traccia sul pc della barca iniziata 6 minuti prima, più  affidabile la traccia del tablet. Vento da NE, onda da NO.</t>
+        </is>
       </c>
       <c r="E15" s="2">
-        <v>1.3520833333350311</v>
+        <v>0.3520833333350311</v>
       </c>
       <c r="F15" s="2">
-        <v>1.372916666667152</v>
+        <v>0.3729166666671517</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
-        <v>185</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J15">
         <v>112</v>
@@ -1566,40 +1073,45 @@
       <c r="K15">
         <v>46</v>
       </c>
-      <c r="L15" t="s">
-        <v>56</v>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="N15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="2">
         <v>45607</v>
       </c>
-      <c r="B16" t="s">
-        <v>57</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>58</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Giri motore 1060. Onda da NE e vento da NO, mare ingrossato (1  m)</t>
+        </is>
       </c>
       <c r="E16" s="2">
-        <v>1.3958333333321209</v>
+        <v>0.3958333333321207</v>
       </c>
       <c r="F16" s="2">
-        <v>1.417361111110949</v>
+        <v>0.4173611111109494</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J16">
         <v>22</v>
@@ -1607,40 +1119,45 @@
       <c r="K16">
         <v>20</v>
       </c>
-      <c r="L16" t="s">
-        <v>47</v>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
       </c>
       <c r="N16">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="2">
         <v>45607</v>
       </c>
-      <c r="B17" t="s">
-        <v>59</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
-        <v>60</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Giri motore 1040. Traccia plot barca iniziata quasi 10 minuti prima, più fedele la traccia nel tablet</t>
+        </is>
       </c>
       <c r="E17" s="2">
-        <v>1.472916666665697</v>
+        <v>0.4729166666656965</v>
       </c>
       <c r="F17" s="2">
-        <v>1.493750000001455</v>
+        <v>0.4937500000014552</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
-        <v>186</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J17">
         <v>15</v>
@@ -1648,40 +1165,45 @@
       <c r="K17">
         <v>20</v>
       </c>
-      <c r="L17" t="s">
-        <v>61</v>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
       </c>
       <c r="N17">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="2">
         <v>45607</v>
       </c>
-      <c r="B18" t="s">
-        <v>62</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>63</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Giri motore 740. Molta corrente. Rete rap A salpata con buchi, riparati.</t>
+        </is>
       </c>
       <c r="E18" s="2">
-        <v>1.5597222222204441</v>
+        <v>0.5597222222204437</v>
       </c>
       <c r="F18" s="2">
-        <v>1.5805555555562021</v>
+        <v>0.5805555555562023</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J18">
         <v>720</v>
@@ -1689,40 +1211,45 @@
       <c r="K18">
         <v>330</v>
       </c>
-      <c r="L18" t="s">
-        <v>64</v>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
       </c>
       <c r="N18">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="2">
         <v>45607</v>
       </c>
-      <c r="B19" t="s">
-        <v>65</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>66</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Giri motore 1030. Deviata la rotta l'ultimo minuto e mezzo</t>
+        </is>
       </c>
       <c r="E19" s="2">
-        <v>1.625</v>
+        <v>0.625</v>
       </c>
       <c r="F19" s="2">
-        <v>1.6458333333321209</v>
+        <v>0.6458333333321207</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
-        <v>186</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J19">
         <v>20</v>
@@ -1730,40 +1257,45 @@
       <c r="K19">
         <v>14</v>
       </c>
-      <c r="L19" t="s">
-        <v>38</v>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="N19">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="2">
         <v>45607</v>
       </c>
-      <c r="B20" t="s">
-        <v>67</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
-        <v>68</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Giri motore 930. Onda da NO. Rotta spostata per la presenza di una presura sul punto 43 42,656 13 36,690.</t>
+        </is>
       </c>
       <c r="E20" s="2">
-        <v>1.6930555555554749</v>
+        <v>0.6930555555554747</v>
       </c>
       <c r="F20" s="2">
-        <v>1.7138888888875949</v>
+        <v>0.7138888888875954</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
-        <v>186</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J20">
         <v>20</v>
@@ -1771,40 +1303,45 @@
       <c r="K20">
         <v>30</v>
       </c>
-      <c r="L20" t="s">
-        <v>69</v>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
       </c>
       <c r="N20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="2">
         <v>45603</v>
       </c>
-      <c r="B21" t="s">
-        <v>70</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
-        <v>71</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>cavo 90 passi (un po di più al rap A). Giri motore 930</t>
+        </is>
       </c>
       <c r="E21" s="2">
-        <v>1.2902777777781009</v>
+        <v>0.2902777777781012</v>
       </c>
       <c r="F21" s="2">
-        <v>1.2979166666664239</v>
+        <v>0.2979166666664241</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
-        <v>185</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J21">
         <v>150</v>
@@ -1812,40 +1349,45 @@
       <c r="K21">
         <v>60</v>
       </c>
-      <c r="L21" t="s">
-        <v>72</v>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
       </c>
       <c r="N21">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2">
         <v>45608</v>
       </c>
-      <c r="B22" t="s">
-        <v>73</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
-        <v>74</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Giri motore 980. Mare meno mosso. Qualche dente storto di entrambi i rapidi</t>
+        </is>
       </c>
       <c r="E22" s="2">
-        <v>1.6041666666678791</v>
+        <v>0.6041666666678793</v>
       </c>
       <c r="F22" s="2">
-        <v>1.625</v>
+        <v>0.625</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" t="s">
-        <v>187</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J22">
         <v>25.5</v>
@@ -1853,40 +1395,45 @@
       <c r="K22">
         <v>26.5</v>
       </c>
-      <c r="L22" t="s">
-        <v>75</v>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
       </c>
       <c r="N22">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="2">
         <v>45601</v>
       </c>
-      <c r="B23" t="s">
-        <v>76</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
-        <v>77</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>cavo 75 passi; 10 m di cavo in più al rap D. No denti (dietro margine le slitte)</t>
+        </is>
       </c>
       <c r="E23" s="2">
-        <v>1.5340277777795559</v>
+        <v>0.5340277777795563</v>
       </c>
       <c r="F23" s="2">
-        <v>1.554861111111677</v>
+        <v>0.554861111111677</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
-        <v>186</v>
-      </c>
-      <c r="I23" t="s">
-        <v>16</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J23">
         <v>1000</v>
@@ -1894,40 +1441,45 @@
       <c r="K23">
         <v>1200</v>
       </c>
-      <c r="L23" t="s">
-        <v>18</v>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="N23">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="2">
         <v>45601</v>
       </c>
-      <c r="B24" t="s">
-        <v>78</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
-        <v>79</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>cavo 210 passi. Aggiunto 1 cm di denti. Rapido D 10 m in più di cavo</t>
+        </is>
       </c>
       <c r="E24" s="2">
-        <v>1.673611111109494</v>
+        <v>0.6736111111094942</v>
       </c>
       <c r="F24" s="2">
-        <v>1.6944444444452531</v>
+        <v>0.6944444444452529</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
-        <v>185</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J24">
         <v>12</v>
@@ -1935,40 +1487,45 @@
       <c r="K24">
         <v>26</v>
       </c>
-      <c r="L24" t="s">
-        <v>80</v>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="N24">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="2">
         <v>45608</v>
       </c>
-      <c r="B25" t="s">
-        <v>81</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
-        <v>82</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Giri motore 920. Tolto coltello e ridotta durata a 20 minuti perché fondo ad Anadara. Mare mosso, 0,9 m d'onda</t>
+        </is>
       </c>
       <c r="E25" s="2">
-        <v>1.265972222223354</v>
+        <v>0.265972222223354</v>
       </c>
       <c r="F25" s="2">
-        <v>1.279861111110222</v>
+        <v>0.2798611111102218</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
-        <v>185</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J25">
         <v>220</v>
@@ -1976,40 +1533,45 @@
       <c r="K25">
         <v>134</v>
       </c>
-      <c r="L25" t="s">
-        <v>83</v>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
       </c>
       <c r="N25">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="2">
         <v>45608</v>
       </c>
-      <c r="B26" t="s">
-        <v>84</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
-        <v>85</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Giri motore 780. Molta corrente. Mare mosso, 0,9 m d'onda. Rimessi i denti (1 linguetta)</t>
+        </is>
       </c>
       <c r="E26" s="2">
-        <v>1.313888888889778</v>
+        <v>0.3138888888897782</v>
       </c>
       <c r="F26" s="2">
-        <v>1.3347222222218991</v>
+        <v>0.3347222222218988</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
-        <v>186</v>
-      </c>
-      <c r="I26" t="s">
-        <v>16</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J26">
         <v>24.5</v>
@@ -2017,40 +1579,45 @@
       <c r="K26">
         <v>19</v>
       </c>
-      <c r="L26" t="s">
-        <v>86</v>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
       </c>
       <c r="N26">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2">
         <v>45608</v>
       </c>
-      <c r="B27" t="s">
-        <v>87</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
-        <v>88</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Giri motore 990. Mare mosso, 1 m d'onda. Presa come riferimento la traccia del 2023, nell'area tra la traccia del 2020 e le altre tracce ci sono molte afferrature. Non calare mai lì in mezzo !</t>
+        </is>
       </c>
       <c r="E27" s="2">
-        <v>1.447222222221171</v>
+        <v>0.4472222222211713</v>
       </c>
       <c r="F27" s="2">
-        <v>1.4680555555569299</v>
+        <v>0.4680555555569299</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" t="s">
-        <v>186</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J27">
         <v>22</v>
@@ -2058,40 +1625,45 @@
       <c r="K27">
         <v>38</v>
       </c>
-      <c r="L27" t="s">
-        <v>38</v>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="N27">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2">
         <v>45601</v>
       </c>
-      <c r="B28" t="s">
-        <v>89</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>90</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>rapA calato 5 minuti prima del D con velocità 4,5 kn. Cavo 210 passi; 10 m in più al rap A. Cala conclusa 5 minuti prima perché superate le tracce dei survey precedenti avendo perso tempo all'inizio per sistemare rete rap D</t>
+        </is>
       </c>
       <c r="E28" s="2">
-        <v>1.7180555555569299</v>
+        <v>0.7180555555569299</v>
       </c>
       <c r="F28" s="2">
-        <v>1.7354166666664239</v>
+        <v>0.7354166666664241</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
-        <v>186</v>
-      </c>
-      <c r="I28" t="s">
-        <v>16</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J28">
         <v>18</v>
@@ -2099,40 +1671,45 @@
       <c r="K28">
         <v>16</v>
       </c>
-      <c r="L28" t="s">
-        <v>91</v>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
       </c>
       <c r="N28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="2">
         <v>45610</v>
       </c>
-      <c r="B29" t="s">
-        <v>92</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
-      <c r="D29" t="s">
-        <v>93</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Cavo 90 passi giri motore 1070.</t>
+        </is>
       </c>
       <c r="E29" s="2">
-        <v>1.3527777777781009</v>
+        <v>0.3527777777781012</v>
       </c>
       <c r="F29" s="2">
-        <v>1.373611111110222</v>
+        <v>0.3736111111102218</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" t="s">
-        <v>185</v>
-      </c>
-      <c r="I29" t="s">
-        <v>16</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J29">
         <v>72</v>
@@ -2140,40 +1717,45 @@
       <c r="K29">
         <v>132</v>
       </c>
-      <c r="L29" t="s">
-        <v>18</v>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="N29">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="2">
         <v>45608</v>
       </c>
-      <c r="B30" t="s">
-        <v>94</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30" t="s">
-        <v>95</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Giri motore 1050. Mare mosso, onda da 1 m. Rap A salpato storto</t>
+        </is>
       </c>
       <c r="E30" s="2">
-        <v>1.404861111110222</v>
+        <v>0.4048611111102218</v>
       </c>
       <c r="F30" s="2">
-        <v>1.4256944444459809</v>
+        <v>0.4256944444459805</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
-        <v>187</v>
-      </c>
-      <c r="I30" t="s">
-        <v>16</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J30">
         <v>46</v>
@@ -2181,40 +1763,45 @@
       <c r="K30">
         <v>34</v>
       </c>
-      <c r="L30" t="s">
-        <v>96</v>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
       </c>
       <c r="N30">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2">
         <v>45604</v>
       </c>
-      <c r="B31" t="s">
-        <v>97</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
-      <c r="D31" t="s">
-        <v>98</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>cavo 90 passi (un po' di più al rap A). Giri motore 960. Sentita botta dopo 6 minuti di cala: rap D presi pezzi di tronchi, storto solo qualche dente. Ore 15:22 avvistati segnali reti da posta lungo il percorso, cambio rotta a 340°, tenuta questa rotta per il resto della cala.</t>
+        </is>
       </c>
       <c r="E31" s="2">
-        <v>1.632638888888323</v>
+        <v>0.632638888888323</v>
       </c>
       <c r="F31" s="2">
-        <v>1.6534722222204441</v>
+        <v>0.6534722222204437</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" t="s">
-        <v>185</v>
-      </c>
-      <c r="I31" t="s">
-        <v>16</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J31">
         <v>192</v>
@@ -2222,40 +1809,45 @@
       <c r="K31">
         <v>210</v>
       </c>
-      <c r="L31" t="s">
-        <v>80</v>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="N31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2">
         <v>45604</v>
       </c>
-      <c r="B32" t="s">
-        <v>99</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
-        <v>100</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>cavo 75 passi (di più al rap A). Giri motore 890. Rap A raddrizzato coltello dopo la cala</t>
+        </is>
       </c>
       <c r="E32" s="2">
-        <v>1.334027777778829</v>
+        <v>0.3340277777788287</v>
       </c>
       <c r="F32" s="2">
-        <v>1.354861111110949</v>
+        <v>0.3548611111109494</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" t="s">
-        <v>185</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J32">
         <v>21</v>
@@ -2263,40 +1855,45 @@
       <c r="K32">
         <v>20</v>
       </c>
-      <c r="L32" t="s">
-        <v>61</v>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
       </c>
       <c r="N32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2">
         <v>45603</v>
       </c>
-      <c r="B33" t="s">
-        <v>101</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
-        <v>102</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>cavo 90 passi. Denti fatti sporgere di una linguetta. Cala serale. Giri motore 850, molta corrente. Vivaio non segnalato: 45 29,238 12 46,539; 45 28,897 12 45,908; 45 28,631 12 46,199; 45 29,048 12 46,710</t>
+        </is>
       </c>
       <c r="E33" s="2">
-        <v>1.747916666667152</v>
+        <v>0.7479166666671517</v>
       </c>
       <c r="F33" s="2">
-        <v>1.768749999999272</v>
+        <v>0.7687499999992724</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" t="s">
-        <v>186</v>
-      </c>
-      <c r="I33" t="s">
-        <v>16</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J33">
         <v>46</v>
@@ -2304,40 +1901,45 @@
       <c r="K33">
         <v>30</v>
       </c>
-      <c r="L33" t="s">
-        <v>103</v>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
       </c>
       <c r="N33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2">
         <v>45603</v>
       </c>
-      <c r="B34" t="s">
-        <v>104</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" t="s">
-        <v>105</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>cavo 90 passi (un po più cavo al rap A). Giri al motore 940. Denti spostati a filo con le slitte.</t>
+        </is>
       </c>
       <c r="E34" s="2">
-        <v>1.4319444444445251</v>
+        <v>0.4319444444445253</v>
       </c>
       <c r="F34" s="2">
-        <v>1.436111111110222</v>
+        <v>0.4361111111102218</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" t="s">
-        <v>186</v>
-      </c>
-      <c r="I34" t="s">
-        <v>16</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J34">
         <v>1070</v>
@@ -2345,40 +1947,45 @@
       <c r="K34">
         <v>820</v>
       </c>
-      <c r="L34" t="s">
-        <v>106</v>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>11.4</t>
+        </is>
       </c>
       <c r="N34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2">
         <v>45603</v>
       </c>
-      <c r="B35" t="s">
-        <v>107</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>45bis</t>
+        </is>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
-      <c r="D35" t="s">
-        <v>108</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>cavo 90 passi (un po' di più al rap a). Giri motore 890</t>
+        </is>
       </c>
       <c r="E35" s="2">
-        <v>1.4756944444452531</v>
+        <v>0.4756944444452529</v>
       </c>
       <c r="F35" s="2">
-        <v>1.4791666666678791</v>
+        <v>0.4791666666678793</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" t="s">
-        <v>186</v>
-      </c>
-      <c r="I35" t="s">
-        <v>16</v>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J35">
         <v>650</v>
@@ -2386,40 +1993,45 @@
       <c r="K35">
         <v>850</v>
       </c>
-      <c r="L35" t="s">
-        <v>109</v>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
       </c>
       <c r="N35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2">
         <v>45605</v>
       </c>
-      <c r="B36" t="s">
-        <v>110</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" t="s">
-        <v>111</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>cavo 200 giri 930</t>
+        </is>
       </c>
       <c r="E36" s="2">
-        <v>1.2958333333335761</v>
+        <v>0.2958333333335759</v>
       </c>
       <c r="F36" s="2">
-        <v>1.316666666665697</v>
+        <v>0.3166666666656965</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36" t="s">
-        <v>185</v>
-      </c>
-      <c r="I36" t="s">
-        <v>16</v>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J36">
         <v>92</v>
@@ -2427,40 +2039,45 @@
       <c r="K36">
         <v>70</v>
       </c>
-      <c r="L36" t="s">
-        <v>112</v>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
       </c>
       <c r="N36">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2">
         <v>45605</v>
       </c>
-      <c r="B37" t="s">
-        <v>113</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
-      <c r="D37" t="s">
-        <v>114</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>cavo 120 passi giri motore 910</t>
+        </is>
       </c>
       <c r="E37" s="2">
-        <v>1.57430555555402</v>
+        <v>0.5743055555540195</v>
       </c>
       <c r="F37" s="2">
-        <v>1.6159722222218991</v>
+        <v>0.6159722222218988</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" t="s">
-        <v>185</v>
-      </c>
-      <c r="I37" t="s">
-        <v>16</v>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J37">
         <v>38</v>
@@ -2468,40 +2085,45 @@
       <c r="K37">
         <v>22</v>
       </c>
-      <c r="L37" t="s">
-        <v>115</v>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2">
         <v>45607</v>
       </c>
-      <c r="B38" t="s">
-        <v>116</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
-      <c r="D38" t="s">
-        <v>117</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>cavo 75 passi. Giri motore 920. Mare mosso 0.9-1 m d'onda.</t>
+        </is>
       </c>
       <c r="E38" s="2">
-        <v>1.2694444444459809</v>
+        <v>0.2694444444459805</v>
       </c>
       <c r="F38" s="2">
-        <v>1.297222222223354</v>
+        <v>0.297222222223354</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" t="s">
-        <v>186</v>
-      </c>
-      <c r="I38" t="s">
-        <v>16</v>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J38">
         <v>46</v>
@@ -2509,40 +2131,45 @@
       <c r="K38">
         <v>44</v>
       </c>
-      <c r="L38" t="s">
-        <v>21</v>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="N38">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="2">
         <v>45601</v>
       </c>
-      <c r="B39" t="s">
-        <v>118</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" t="s">
-        <v>119</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>cavo 120 passi. No denti.</t>
+        </is>
       </c>
       <c r="E39" s="2">
-        <v>1.6145833333321209</v>
+        <v>0.6145833333321207</v>
       </c>
       <c r="F39" s="2">
-        <v>1.6354166666678791</v>
+        <v>0.6354166666678793</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" t="s">
-        <v>186</v>
-      </c>
-      <c r="I39" t="s">
-        <v>16</v>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J39">
         <v>10</v>
@@ -2550,40 +2177,45 @@
       <c r="K39">
         <v>12</v>
       </c>
-      <c r="L39" t="s">
-        <v>120</v>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
       </c>
       <c r="N39">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
-      <c r="B40" t="s">
-        <v>38</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
-      <c r="D40" t="s">
-        <v>121</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>cavo 135 passi (un po' di più al rap A). Giri motore 860. Cambi di rotta lungo la traccia per evitare di concludera la strascicata su punto critico (rotta iniziale 121°, modificata a 110°, poi impostata a 125°, infine modificata a 111°</t>
+        </is>
       </c>
       <c r="E40" s="2">
-        <v>1.4090277777795559</v>
+        <v>0.4090277777795563</v>
       </c>
       <c r="F40" s="2">
-        <v>1.429861111111677</v>
+        <v>0.429861111111677</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" t="s">
-        <v>186</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J40">
         <v>270</v>
@@ -2591,40 +2223,45 @@
       <c r="K40">
         <v>280</v>
       </c>
-      <c r="L40" t="s">
-        <v>80</v>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="N40">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="2">
         <v>45610</v>
       </c>
-      <c r="B41" t="s">
-        <v>122</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
-        <v>123</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Cavo 250 passi giri motore 1080.  Fatta deviazione a inizio cala per evitare peschereccio</t>
+        </is>
       </c>
       <c r="E41" s="2">
-        <v>1.3152777777795559</v>
+        <v>0.3152777777795563</v>
       </c>
       <c r="F41" s="2">
-        <v>1.336111111111677</v>
+        <v>0.336111111111677</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" t="s">
-        <v>186</v>
-      </c>
-      <c r="I41" t="s">
-        <v>16</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J41">
         <v>16</v>
@@ -2632,40 +2269,45 @@
       <c r="K41">
         <v>11</v>
       </c>
-      <c r="L41" t="s">
-        <v>72</v>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
       </c>
       <c r="N41">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="2">
         <v>45602</v>
       </c>
-      <c r="B42" t="s">
-        <v>124</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
-      <c r="D42" t="s">
-        <v>125</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>cavo 135 passi, più  abbondante per il rap A. Cala serale. Durata ridotta per completare la programmazione giornaliera. Giri motore 930.</t>
+        </is>
       </c>
       <c r="E42" s="2">
-        <v>1.78125</v>
+        <v>0.78125</v>
       </c>
       <c r="F42" s="2">
-        <v>1.7916666666678791</v>
+        <v>0.7916666666678793</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" t="s">
-        <v>186</v>
-      </c>
-      <c r="I42" t="s">
-        <v>16</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J42">
         <v>88</v>
@@ -2673,40 +2315,45 @@
       <c r="K42">
         <v>120</v>
       </c>
-      <c r="L42" t="s">
-        <v>41</v>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
       </c>
       <c r="N42">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="2">
         <v>45602</v>
       </c>
-      <c r="B43" t="s">
-        <v>126</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
-      <c r="D43" t="s">
-        <v>127</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>cavo 165 passi, qualche metro in più a rap A. aumentato num di giri motore (890) per tenere la velocità. Rete rap A ricucita in alcuni punti</t>
+        </is>
       </c>
       <c r="E43" s="2">
-        <v>1.3493055555554749</v>
+        <v>0.3493055555554747</v>
       </c>
       <c r="F43" s="2">
-        <v>1.359722222223354</v>
+        <v>0.359722222223354</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" t="s">
-        <v>186</v>
-      </c>
-      <c r="I43" t="s">
-        <v>16</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J43">
         <v>148</v>
@@ -2714,81 +2361,91 @@
       <c r="K43">
         <v>410</v>
       </c>
-      <c r="L43" t="s">
-        <v>53</v>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="N43">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="2">
         <v>45606</v>
       </c>
-      <c r="B44" t="s">
-        <v>128</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
-      <c r="D44" t="s">
-        <v>129</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>cavo 180  passi giri motore  910 nuova traccia del 2023 preso cavo d acciaio sul rapido D commerciale valido ma discar e litter presi dal rapido A</t>
+        </is>
       </c>
       <c r="E44" s="2">
-        <v>1.3368055555547469</v>
+        <v>0.3368055555547471</v>
       </c>
       <c r="F44" s="2">
-        <v>1.357638888890506</v>
+        <v>0.3576388888905058</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="H44" t="s">
-        <v>186</v>
-      </c>
-      <c r="I44" t="s">
-        <v>16</v>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J44">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="K44">
         <v>10.9</v>
       </c>
-      <c r="L44" t="s">
-        <v>130</v>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
       </c>
       <c r="N44">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45" s="2">
         <v>45604</v>
       </c>
-      <c r="B45" t="s">
-        <v>131</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
-      <c r="D45" t="s">
-        <v>132</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>cavo 90 passi (di più al rap A). Giri motore 890. Corretta la posizione alle 7:15 accostandoci alle tracce precedenti. Traccia interrotta in ritardo, prosegue più  del dovuto.</t>
+        </is>
       </c>
       <c r="E45" s="2">
-        <v>1.2958333333335761</v>
+        <v>0.2958333333335759</v>
       </c>
       <c r="F45" s="2">
-        <v>1.3173611111124051</v>
+        <v>0.3173611111124046</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="H45" t="s">
-        <v>186</v>
-      </c>
-      <c r="I45" t="s">
-        <v>16</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J45">
         <v>49</v>
@@ -2796,40 +2453,45 @@
       <c r="K45">
         <v>30</v>
       </c>
-      <c r="L45" t="s">
-        <v>72</v>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
       </c>
       <c r="N45">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46" s="2">
         <v>45602</v>
       </c>
-      <c r="B46" t="s">
-        <v>133</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
-      <c r="D46" t="s">
-        <v>134</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>cavo 120 passi, più  lungo quello del rap A. Giri motore 900. Durata della cala ridotta per completare il programma della giornata. Cala dopo il tramonto</t>
+        </is>
       </c>
       <c r="E46" s="2">
-        <v>1.7368055555562021</v>
+        <v>0.7368055555562023</v>
       </c>
       <c r="F46" s="2">
-        <v>1.747916666667152</v>
+        <v>0.7479166666671517</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
-      <c r="H46" t="s">
-        <v>186</v>
-      </c>
-      <c r="I46" t="s">
-        <v>16</v>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J46">
         <v>160</v>
@@ -2837,40 +2499,45 @@
       <c r="K46">
         <v>156</v>
       </c>
-      <c r="L46" t="s">
-        <v>135</v>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
       </c>
       <c r="N46">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47">
       <c r="A47" s="2">
         <v>45604</v>
       </c>
-      <c r="B47" t="s">
-        <v>136</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
-      <c r="D47" t="s">
-        <v>137</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>cavo 135 passi (di più al rap A). Giri motore 880</t>
+        </is>
       </c>
       <c r="E47" s="2">
-        <v>1.4631944444445251</v>
+        <v>0.4631944444445253</v>
       </c>
       <c r="F47" s="2">
-        <v>1.484027777776646</v>
+        <v>0.484027777776646</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="H47" t="s">
-        <v>186</v>
-      </c>
-      <c r="I47" t="s">
-        <v>16</v>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J47">
         <v>100</v>
@@ -2878,40 +2545,45 @@
       <c r="K47">
         <v>52</v>
       </c>
-      <c r="L47" t="s">
-        <v>75</v>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
       </c>
       <c r="N47">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48">
       <c r="A48" s="2">
         <v>45602</v>
       </c>
-      <c r="B48" t="s">
-        <v>138</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
-      <c r="D48" t="s">
-        <v>139</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>cavo 165 passi, qualche metro in più a rap A. Aggiunta mezza linguetta ai denti.</t>
+        </is>
       </c>
       <c r="E48" s="2">
-        <v>1.579861111109494</v>
+        <v>0.5798611111094942</v>
       </c>
       <c r="F48" s="2">
-        <v>1.6027777777781009</v>
+        <v>0.6027777777781012</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="H48" t="s">
-        <v>185</v>
-      </c>
-      <c r="I48" t="s">
-        <v>16</v>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J48">
         <v>95</v>
@@ -2919,40 +2591,45 @@
       <c r="K48">
         <v>90</v>
       </c>
-      <c r="L48" t="s">
-        <v>140</v>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
       </c>
       <c r="N48">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49">
       <c r="A49" s="2">
         <v>45605</v>
       </c>
-      <c r="B49" t="s">
-        <v>141</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
-      <c r="D49" t="s">
-        <v>142</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>cavo 135 passi giri motore 870</t>
+        </is>
       </c>
       <c r="E49" s="2">
-        <v>1.4736111111124051</v>
+        <v>0.4736111111124046</v>
       </c>
       <c r="F49" s="2">
-        <v>1.4944444444445251</v>
+        <v>0.4944444444445253</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49" t="s">
-        <v>186</v>
-      </c>
-      <c r="I49" t="s">
-        <v>16</v>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J49">
         <v>106</v>
@@ -2960,40 +2637,45 @@
       <c r="K49">
         <v>120</v>
       </c>
-      <c r="L49" t="s">
-        <v>86</v>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
       </c>
       <c r="N49">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50">
       <c r="A50" s="2">
         <v>45602</v>
       </c>
-      <c r="B50" t="s">
-        <v>143</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
-      <c r="D50" t="s">
-        <v>144</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>cavo 135 passi, qualche metro in più al rap A. Giri motore 920. Durata ridotta per completare le stazioni della giornata</t>
+        </is>
       </c>
       <c r="E50" s="2">
-        <v>1.704861111109494</v>
+        <v>0.7048611111094942</v>
       </c>
       <c r="F50" s="2">
-        <v>1.7159722222204441</v>
+        <v>0.7159722222204437</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" t="s">
-        <v>185</v>
-      </c>
-      <c r="I50" t="s">
-        <v>16</v>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J50">
         <v>228</v>
@@ -3001,40 +2683,45 @@
       <c r="K50">
         <v>220</v>
       </c>
-      <c r="L50" t="s">
-        <v>103</v>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
       </c>
       <c r="N50">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51">
       <c r="A51" s="2">
         <v>45602</v>
       </c>
-      <c r="B51" t="s">
-        <v>145</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
-      <c r="D51" t="s">
-        <v>146</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>giri motore 890</t>
+        </is>
       </c>
       <c r="E51" s="2">
-        <v>1.3930555555562021</v>
+        <v>0.3930555555562023</v>
       </c>
       <c r="F51" s="2">
-        <v>1.404166666667152</v>
+        <v>0.4041666666671517</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51" t="s">
-        <v>186</v>
-      </c>
-      <c r="I51" t="s">
-        <v>16</v>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J51">
         <v>450</v>
@@ -3042,40 +2729,45 @@
       <c r="K51">
         <v>610</v>
       </c>
-      <c r="L51" t="s">
-        <v>147</v>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
       </c>
       <c r="N51">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52">
       <c r="A52" s="2">
         <v>45605</v>
       </c>
-      <c r="B52" t="s">
-        <v>148</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
-      <c r="D52" t="s">
-        <v>149</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>cavo 120 passi giri motore 930</t>
+        </is>
       </c>
       <c r="E52" s="2">
-        <v>1.6201388888875949</v>
+        <v>0.6201388888875954</v>
       </c>
       <c r="F52" s="2">
-        <v>1.640972222223354</v>
+        <v>0.640972222223354</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" t="s">
-        <v>185</v>
-      </c>
-      <c r="I52" t="s">
-        <v>16</v>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J52">
         <v>14</v>
@@ -3083,40 +2775,45 @@
       <c r="K52">
         <v>24</v>
       </c>
-      <c r="L52" t="s">
-        <v>150</v>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
       </c>
       <c r="N52">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53">
       <c r="A53" s="2">
         <v>45605</v>
       </c>
-      <c r="B53" t="s">
-        <v>151</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
-      <c r="D53" t="s">
-        <v>152</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>cavo 150 passi giri motore 950</t>
+        </is>
       </c>
       <c r="E53" s="2">
-        <v>1.648611111111677</v>
+        <v>0.648611111111677</v>
       </c>
       <c r="F53" s="2">
-        <v>1.6694444444437979</v>
+        <v>0.6694444444437977</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" t="s">
-        <v>185</v>
-      </c>
-      <c r="I53" t="s">
-        <v>16</v>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J53">
         <v>42</v>
@@ -3124,40 +2821,45 @@
       <c r="K53">
         <v>38</v>
       </c>
-      <c r="L53" t="s">
-        <v>29</v>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
       </c>
       <c r="N53">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54">
       <c r="A54" s="2">
         <v>45607</v>
       </c>
-      <c r="B54" t="s">
-        <v>153</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C54">
         <v>53</v>
       </c>
-      <c r="D54" t="s">
-        <v>154</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>cavo 90 passi giri motore tirati solo 15 minuti per evitare saccate troppo grosse</t>
+        </is>
       </c>
       <c r="E54" s="2">
-        <v>1.548611111109494</v>
+        <v>0.5486111111094942</v>
       </c>
       <c r="F54" s="2">
-        <v>1.559027777777374</v>
+        <v>0.5590277777773736</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" t="s">
-        <v>185</v>
-      </c>
-      <c r="I54" t="s">
-        <v>16</v>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J54">
         <v>244</v>
@@ -3165,75 +2867,85 @@
       <c r="K54">
         <v>102</v>
       </c>
-      <c r="L54" t="s">
-        <v>35</v>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>8.7</t>
+        </is>
       </c>
       <c r="N54">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55">
       <c r="A55" s="2">
         <v>45607</v>
       </c>
-      <c r="B55" t="s">
-        <v>155</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="C55">
         <v>54</v>
       </c>
-      <c r="D55" t="s">
-        <v>156</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>cavo 60 passi giri motore 850 cala ridotta a 15 minuti per evitare danni ai rapidi</t>
+        </is>
       </c>
       <c r="E55" s="2">
-        <v>1.597222222222626</v>
+        <v>0.5972222222226264</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" t="s">
-        <v>186</v>
-      </c>
-      <c r="I55" t="s">
-        <v>16</v>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J55">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="K55">
         <v>25.5</v>
       </c>
-      <c r="L55" t="s">
-        <v>112</v>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
       </c>
       <c r="N55">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56">
       <c r="A56" s="2">
         <v>45607</v>
       </c>
-      <c r="B56" t="s">
-        <v>157</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C56">
         <v>55</v>
       </c>
-      <c r="D56" t="s">
-        <v>158</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>cavo 90 passi giri motore 800 ridotto a 15 per evitare saccate troppo grosse</t>
+        </is>
       </c>
       <c r="E56" s="2">
-        <v>1.673611111109494</v>
+        <v>0.6736111111094942</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
-      <c r="H56" t="s">
-        <v>186</v>
-      </c>
-      <c r="I56" t="s">
-        <v>16</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J56">
         <v>98</v>
@@ -3241,40 +2953,45 @@
       <c r="K56">
         <v>60</v>
       </c>
-      <c r="L56" t="s">
-        <v>47</v>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
       </c>
       <c r="N56">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57">
       <c r="A57" s="2">
         <v>45601</v>
       </c>
-      <c r="B57" t="s">
-        <v>159</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
-      <c r="D57" t="s">
-        <v>160</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>cavo 90 passi; 10 m in più al rap D. No denti (dietro margine slitte)</t>
+        </is>
       </c>
       <c r="E57" s="2">
-        <v>1.4756944444452531</v>
+        <v>0.4756944444452529</v>
       </c>
       <c r="F57" s="2">
-        <v>1.496527777777374</v>
+        <v>0.4965277777773736</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="H57" t="s">
-        <v>185</v>
-      </c>
-      <c r="I57" t="s">
-        <v>16</v>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J57">
         <v>208</v>
@@ -3282,40 +2999,45 @@
       <c r="K57">
         <v>666</v>
       </c>
-      <c r="L57" t="s">
-        <v>161</v>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
       </c>
       <c r="N57">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58">
       <c r="A58" s="2">
         <v>45608</v>
       </c>
-      <c r="B58" t="s">
-        <v>162</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="C58">
         <v>57</v>
       </c>
-      <c r="D58" t="s">
-        <v>163</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Giri motore 1040. Mare mosso, 1 m d'onda.</t>
+        </is>
       </c>
       <c r="E58" s="2">
-        <v>1.35555555555402</v>
+        <v>0.3555555555540195</v>
       </c>
       <c r="F58" s="2">
-        <v>1.376388888889778</v>
+        <v>0.3763888888897782</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="H58" t="s">
-        <v>185</v>
-      </c>
-      <c r="I58" t="s">
-        <v>16</v>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J58">
         <v>54</v>
@@ -3323,40 +3045,45 @@
       <c r="K58">
         <v>21.7</v>
       </c>
-      <c r="L58" t="s">
-        <v>164</v>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
       </c>
       <c r="N58">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59">
       <c r="A59" s="2">
         <v>45610</v>
       </c>
-      <c r="B59" t="s">
-        <v>165</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="C59">
         <v>58</v>
       </c>
-      <c r="D59" t="s">
-        <v>166</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Cavo 90 passi giri motore 1040. Il rapido A ha dato uno scossone in cala. Salpato prima per presenza area di scarico materiali portuali.</t>
+        </is>
       </c>
       <c r="E59" s="2">
-        <v>1.257638888888323</v>
+        <v>0.257638888888323</v>
       </c>
       <c r="F59" s="2">
-        <v>1.2763888888875949</v>
+        <v>0.2763888888875954</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59" t="s">
-        <v>186</v>
-      </c>
-      <c r="I59" t="s">
-        <v>16</v>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J59">
         <v>336</v>
@@ -3364,40 +3091,45 @@
       <c r="K59">
         <v>382</v>
       </c>
-      <c r="L59" t="s">
-        <v>167</v>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="N59">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60">
       <c r="A60" s="2">
         <v>45609</v>
       </c>
-      <c r="B60" t="s">
-        <v>168</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="C60">
         <v>59</v>
       </c>
-      <c r="D60" t="s">
-        <v>169</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>cavo 270 passi giri motore 960</t>
+        </is>
       </c>
       <c r="E60" s="2">
-        <v>1.236111111109494</v>
+        <v>0.2361111111094942</v>
       </c>
       <c r="F60" s="2">
-        <v>1.2569444444452531</v>
+        <v>0.2569444444452529</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
-      <c r="H60" t="s">
-        <v>185</v>
-      </c>
-      <c r="I60" t="s">
-        <v>16</v>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J60">
         <v>29.2</v>
@@ -3405,40 +3137,45 @@
       <c r="K60">
         <v>23.2</v>
       </c>
-      <c r="L60" t="s">
-        <v>115</v>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
       </c>
       <c r="N60">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61">
       <c r="A61" s="2">
         <v>45609</v>
       </c>
-      <c r="B61" t="s">
-        <v>170</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="C61">
         <v>60</v>
       </c>
-      <c r="D61" t="s">
-        <v>171</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Cavo 105 passi giri motore 800</t>
+        </is>
       </c>
       <c r="E61" s="2">
-        <v>1.2763888888875949</v>
+        <v>0.2763888888875954</v>
       </c>
       <c r="F61" s="2">
-        <v>1.297222222223354</v>
+        <v>0.297222222223354</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="H61" t="s">
-        <v>185</v>
-      </c>
-      <c r="I61" t="s">
-        <v>16</v>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J61">
         <v>14.5</v>
@@ -3446,40 +3183,45 @@
       <c r="K61">
         <v>12</v>
       </c>
-      <c r="L61" t="s">
-        <v>140</v>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
       </c>
       <c r="N61">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62">
       <c r="A62" s="2">
         <v>45609</v>
       </c>
-      <c r="B62" t="s">
-        <v>172</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="C62">
         <v>61</v>
       </c>
-      <c r="D62" t="s">
-        <v>173</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Cavo 90 giri motore 800 Rotta modificata per presenza nuovo vivaio cozze</t>
+        </is>
       </c>
       <c r="E62" s="2">
-        <v>1.3777777777795559</v>
+        <v>0.3777777777795563</v>
       </c>
       <c r="F62" s="2">
-        <v>1.398611111111677</v>
+        <v>0.398611111111677</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="H62" t="s">
-        <v>186</v>
-      </c>
-      <c r="I62" t="s">
-        <v>16</v>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J62">
         <v>5.6</v>
@@ -3487,40 +3229,45 @@
       <c r="K62">
         <v>8.5</v>
       </c>
-      <c r="L62" t="s">
-        <v>174</v>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
       </c>
       <c r="N62">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63">
       <c r="A63" s="2">
         <v>45609</v>
       </c>
-      <c r="B63" t="s">
-        <v>175</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
-      <c r="D63" t="s">
-        <v>176</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Cavo 330 passi giri motore 900</t>
+        </is>
       </c>
       <c r="E63" s="2">
-        <v>1.4618055555547469</v>
+        <v>0.4618055555547471</v>
       </c>
       <c r="F63" s="2">
-        <v>1.482638888890506</v>
+        <v>0.4826388888905058</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
-      <c r="H63" t="s">
-        <v>186</v>
-      </c>
-      <c r="I63" t="s">
-        <v>16</v>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J63">
         <v>120</v>
@@ -3528,37 +3275,40 @@
       <c r="K63">
         <v>112</v>
       </c>
-      <c r="L63" t="s">
-        <v>44</v>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
       </c>
       <c r="N63">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64">
       <c r="A64" s="2">
         <v>45609</v>
       </c>
-      <c r="B64" t="s">
-        <v>177</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
       <c r="E64" s="2">
-        <v>1.533333333332848</v>
+        <v>0.5333333333328483</v>
       </c>
       <c r="F64" s="2">
-        <v>1.5541666666649689</v>
+        <v>0.5541666666649689</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
-      <c r="H64" t="s">
-        <v>185</v>
-      </c>
-      <c r="I64" t="s">
-        <v>16</v>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J64">
         <v>19</v>
@@ -3566,40 +3316,45 @@
       <c r="K64">
         <v>32</v>
       </c>
-      <c r="L64" t="s">
-        <v>97</v>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="N64">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65">
       <c r="A65" s="2">
         <v>45609</v>
       </c>
-      <c r="B65" t="s">
-        <v>178</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
-      <c r="D65" t="s">
-        <v>179</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>cavo 90 passi giri 840 preso segnale</t>
+        </is>
       </c>
       <c r="E65" s="2">
-        <v>1.586111111111677</v>
+        <v>0.586111111111677</v>
       </c>
       <c r="F65" s="2">
-        <v>15.33000000000175</v>
+        <v>14.33000000000175</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
-      <c r="H65" t="s">
-        <v>185</v>
-      </c>
-      <c r="I65" t="s">
-        <v>16</v>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J65">
         <v>13</v>
@@ -3607,40 +3362,45 @@
       <c r="K65">
         <v>23</v>
       </c>
-      <c r="L65" t="s">
-        <v>143</v>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="N65">
         <v>13.74388888888889</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66">
       <c r="A66" s="2">
         <v>45609</v>
       </c>
-      <c r="B66" t="s">
-        <v>180</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
-      <c r="D66" t="s">
-        <v>181</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>cavo 250 giri 900</t>
+        </is>
       </c>
       <c r="E66" s="2">
-        <v>1.663888888888323</v>
+        <v>0.663888888888323</v>
       </c>
       <c r="F66" s="2">
-        <v>1.6847222222204441</v>
+        <v>0.6847222222204437</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
-      <c r="H66" t="s">
-        <v>186</v>
-      </c>
-      <c r="I66" t="s">
-        <v>16</v>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J66">
         <v>22</v>
@@ -3648,37 +3408,40 @@
       <c r="K66">
         <v>16.5</v>
       </c>
-      <c r="L66" t="s">
-        <v>42</v>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="N66">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67">
       <c r="A67" s="2">
         <v>45609</v>
       </c>
-      <c r="B67" t="s">
-        <v>182</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
       <c r="E67" s="2">
-        <v>1.720138888889778</v>
+        <v>0.7201388888897782</v>
       </c>
       <c r="F67" s="2">
-        <v>1.7409722222218991</v>
+        <v>0.7409722222218988</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
-      <c r="H67" t="s">
-        <v>187</v>
-      </c>
-      <c r="I67" t="s">
-        <v>16</v>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J67">
         <v>21</v>
@@ -3686,40 +3449,45 @@
       <c r="K67">
         <v>8</v>
       </c>
-      <c r="L67" t="s">
-        <v>174</v>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
       </c>
       <c r="N67">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68">
       <c r="A68" s="2">
         <v>45605</v>
       </c>
-      <c r="B68" t="s">
-        <v>80</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
-      <c r="D68" t="s">
-        <v>183</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>cavo 60 passi giri motore 910</t>
+        </is>
       </c>
       <c r="E68" s="2">
-        <v>1.3993055555547469</v>
+        <v>0.3993055555547471</v>
       </c>
       <c r="F68" s="2">
-        <v>1.420138888890506</v>
+        <v>0.4201388888905058</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
-      <c r="H68" t="s">
-        <v>185</v>
-      </c>
-      <c r="I68" t="s">
-        <v>16</v>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J68">
         <v>60</v>
@@ -3727,40 +3495,45 @@
       <c r="K68">
         <v>46</v>
       </c>
-      <c r="L68" t="s">
-        <v>53</v>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="N68">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69">
       <c r="A69" s="2">
         <v>45604</v>
       </c>
-      <c r="B69" t="s">
-        <v>53</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C69">
         <v>68</v>
       </c>
-      <c r="D69" t="s">
-        <v>184</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Giri motore 1000</t>
+        </is>
       </c>
       <c r="E69" s="2">
-        <v>1.5166666666664239</v>
+        <v>0.5166666666664241</v>
       </c>
       <c r="F69" s="2">
-        <v>1.537499999998545</v>
+        <v>0.5374999999985448</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
-      <c r="H69" t="s">
-        <v>187</v>
-      </c>
-      <c r="I69" t="s">
-        <v>16</v>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="J69">
         <v>68</v>
@@ -3768,21 +3541,16 @@
       <c r="K69">
         <v>78</v>
       </c>
-      <c r="L69" t="s">
-        <v>140</v>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
       </c>
       <c r="N69">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N69" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="ENA_FRA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OnBoard/data/haul_order.xlsx
+++ b/OnBoard/data/haul_order.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,11 +440,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45604</v>
+        <v>45602</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C2">
@@ -452,14 +452,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>cavo 90 passi (un po' di più al rapA). Giri motore 870.</t>
+          <t>cavo 135 passi, qualche metro in più al rap A. Giri motore 950</t>
         </is>
       </c>
       <c r="E2" s="2">
-        <v>0.2569444444452529</v>
+        <v>0.6111111111094942</v>
       </c>
       <c r="F2" s="2">
-        <v>0.2777777777773736</v>
+        <v>0.6319444444452529</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -470,14 +470,14 @@
         </is>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="K2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="N2">
@@ -486,11 +486,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45602</v>
+        <v>45605</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C3">
@@ -498,14 +498,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cavo 135 passi, qualche metro in più al rap A. Giri motore 950</t>
+          <t>cavo 90 passi giri motore 920, parte sogliole rapi a misurate a bordo</t>
         </is>
       </c>
       <c r="E3" s="2">
-        <v>0.6111111111094942</v>
+        <v>0.3402777777773736</v>
       </c>
       <c r="F3" s="2">
-        <v>0.6319444444452529</v>
+        <v>0.3611111111094942</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -516,14 +516,14 @@
         </is>
       </c>
       <c r="J3">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="K3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="N3">
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C4">
@@ -544,14 +544,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cavo 90 passi giri motore 920, parte sogliole rapi a misurate a bordo</t>
+          <t>cavo 150 passi giri motore 920</t>
         </is>
       </c>
       <c r="E4" s="2">
-        <v>0.3402777777773736</v>
+        <v>0.5131944444437977</v>
       </c>
       <c r="F4" s="2">
-        <v>0.3611111111094942</v>
+        <v>0.5340277777795563</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -562,14 +562,14 @@
         </is>
       </c>
       <c r="J4">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>50</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="N4">
@@ -578,11 +578,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45605</v>
+        <v>45602</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C5">
@@ -590,14 +590,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>cavo 150 passi giri motore 920</t>
+          <t>cavo 165 passi, qualche metro in più  al rap A. Giri motore 910. Seguite le tracce del 2020 e 2021</t>
         </is>
       </c>
       <c r="E5" s="2">
-        <v>0.5131944444437977</v>
+        <v>0.4798611111109494</v>
       </c>
       <c r="F5" s="2">
-        <v>0.5340277777795563</v>
+        <v>0.5006944444430701</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -608,14 +608,14 @@
         </is>
       </c>
       <c r="J5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>50</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="N5">
@@ -624,11 +624,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45602</v>
+        <v>45607</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C6">
@@ -636,14 +636,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cavo 165 passi, qualche metro in più  al rap A. Giri motore 910. Seguite le tracce del 2020 e 2021</t>
+          <t>cavo 60 passi giri motore 920  tirati 15 minuti per evitare saccata troppo grossa riparati entrambi i rapidi rete e foderone</t>
         </is>
       </c>
       <c r="E6" s="2">
-        <v>0.4798611111109494</v>
+        <v>0.4944444444445253</v>
       </c>
       <c r="F6" s="2">
-        <v>0.5006944444430701</v>
+        <v>0.5048611111124046</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -654,27 +654,27 @@
         </is>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>1244</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>1100</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="N6">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45607</v>
+        <v>45606</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C7">
@@ -682,14 +682,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>cavo 60 passi giri motore 920  tirati 15 minuti per evitare saccata troppo grossa riparati entrambi i rapidi rete e foderone</t>
+          <t>cavo 90 passi giri motore 980</t>
         </is>
       </c>
       <c r="E7" s="2">
-        <v>0.4944444444445253</v>
+        <v>0.4381944444430701</v>
       </c>
       <c r="F7" s="2">
-        <v>0.5048611111124046</v>
+        <v>0.4590277777788287</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -700,27 +700,27 @@
         </is>
       </c>
       <c r="J7">
-        <v>1244</v>
+        <v>166</v>
       </c>
       <c r="K7">
-        <v>1100</v>
+        <v>230</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C8">
@@ -728,14 +728,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>cavo 90 passi giri motore 980</t>
+          <t>cavo 150npassi giri motore 920</t>
         </is>
       </c>
       <c r="E8" s="2">
-        <v>0.4381944444430701</v>
+        <v>0.6895833333328483</v>
       </c>
       <c r="F8" s="2">
-        <v>0.4590277777788287</v>
+        <v>0.7104166666649689</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -746,14 +746,14 @@
         </is>
       </c>
       <c r="J8">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N8">
@@ -762,11 +762,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C9">
@@ -774,14 +774,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>cavo 150npassi giri motore 920</t>
+          <t>cavo 180 passi giri motore 860</t>
         </is>
       </c>
       <c r="E9" s="2">
-        <v>0.6895833333328483</v>
+        <v>0.2638888888905058</v>
       </c>
       <c r="F9" s="2">
-        <v>0.7104166666649689</v>
+        <v>0.2743055555547471</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -792,27 +792,27 @@
         </is>
       </c>
       <c r="J9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="K9">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="N9">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10">
@@ -820,14 +820,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cavo 180 passi giri motore 860</t>
+          <t>cavo 90 passi (un po' di più  al rap a). Giri motore 980. Cala prima dell'alba. Pezzo di tronco nella bocca del rap A, per questo pescata ridotta.</t>
         </is>
       </c>
       <c r="E10" s="2">
-        <v>0.2638888888905058</v>
+        <v>0.2104166666649689</v>
       </c>
       <c r="F10" s="2">
-        <v>0.2743055555547471</v>
+        <v>0.2312500000007276</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -838,27 +838,27 @@
         </is>
       </c>
       <c r="J10">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="K10">
-        <v>302</v>
+        <v>46</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="N10">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>45603</v>
+        <v>45607</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C11">
@@ -866,14 +866,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>cavo 90 passi (un po' di più  al rap a). Giri motore 980. Cala prima dell'alba. Pezzo di tronco nella bocca del rap A, per questo pescata ridotta.</t>
+          <t>cavo 90 passi giri motore ridotto a 15 per evitare saccate troppo grosse</t>
         </is>
       </c>
       <c r="E11" s="2">
-        <v>0.2104166666649689</v>
+        <v>0.6527777777773736</v>
       </c>
       <c r="F11" s="2">
-        <v>0.2312500000007276</v>
+        <v>0.6631944444452529</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -884,27 +884,27 @@
         </is>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="K11">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="N11">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>45607</v>
+        <v>45602</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C12">
@@ -912,14 +912,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cavo 90 passi giri motore ridotto a 15 per evitare saccate troppo grosse</t>
+          <t>aggiunta mezza linguetta ai denti. Cavo 210 passi, dato qualche metro in più  al rap A</t>
         </is>
       </c>
       <c r="E12" s="2">
-        <v>0.6527777777773736</v>
+        <v>0.296527777776646</v>
       </c>
       <c r="F12" s="2">
-        <v>0.6631944444452529</v>
+        <v>0.3069444444445253</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -930,14 +930,14 @@
         </is>
       </c>
       <c r="J12">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c r="K12">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="N12">
@@ -950,7 +950,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C13">
@@ -958,14 +958,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>aggiunta mezza linguetta ai denti. Cavo 210 passi, dato qualche metro in più  al rap A</t>
+          <t>cavo 210 passi; qualche metro in più  al rapido A. Cala prima dell'alba.</t>
         </is>
       </c>
       <c r="E13" s="2">
-        <v>0.296527777776646</v>
+        <v>0.2152777777773736</v>
       </c>
       <c r="F13" s="2">
-        <v>0.3069444444445253</v>
+        <v>0.2256944444452529</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -976,14 +976,14 @@
         </is>
       </c>
       <c r="J13">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="K13">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N13">
@@ -992,11 +992,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>45602</v>
+        <v>45607</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C14">
@@ -1004,14 +1004,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>cavo 210 passi; qualche metro in più  al rapido A. Cala prima dell'alba.</t>
+          <t>Giri motore 660. Corrente forte che spinge la barca. Traccia sul pc della barca iniziata 6 minuti prima, più  affidabile la traccia del tablet. Vento da NE, onda da NO.</t>
         </is>
       </c>
       <c r="E14" s="2">
-        <v>0.2152777777773736</v>
+        <v>0.3520833333350311</v>
       </c>
       <c r="F14" s="2">
-        <v>0.2256944444452529</v>
+        <v>0.3729166666671517</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1022,18 +1022,18 @@
         </is>
       </c>
       <c r="J14">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="K14">
-        <v>360</v>
+        <v>46</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N14">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C15">
@@ -1050,14 +1050,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Giri motore 660. Corrente forte che spinge la barca. Traccia sul pc della barca iniziata 6 minuti prima, più  affidabile la traccia del tablet. Vento da NE, onda da NO.</t>
+          <t>Giri motore 1060. Onda da NE e vento da NO, mare ingrossato (1  m)</t>
         </is>
       </c>
       <c r="E15" s="2">
-        <v>0.3520833333350311</v>
+        <v>0.3958333333321207</v>
       </c>
       <c r="F15" s="2">
-        <v>0.3729166666671517</v>
+        <v>0.4173611111109494</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1068,18 +1068,18 @@
         </is>
       </c>
       <c r="J15">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="K15">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="N15">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C16">
@@ -1096,14 +1096,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Giri motore 1060. Onda da NE e vento da NO, mare ingrossato (1  m)</t>
+          <t>Giri motore 1040. Traccia plot barca iniziata quasi 10 minuti prima, più fedele la traccia nel tablet</t>
         </is>
       </c>
       <c r="E16" s="2">
-        <v>0.3958333333321207</v>
+        <v>0.4729166666656965</v>
       </c>
       <c r="F16" s="2">
-        <v>0.4173611111109494</v>
+        <v>0.4937500000014552</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1114,18 +1114,18 @@
         </is>
       </c>
       <c r="J16">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K16">
         <v>20</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="N16">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C17">
@@ -1142,14 +1142,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Giri motore 1040. Traccia plot barca iniziata quasi 10 minuti prima, più fedele la traccia nel tablet</t>
+          <t>Giri motore 740. Molta corrente. Rete rap A salpata con buchi, riparati.</t>
         </is>
       </c>
       <c r="E17" s="2">
-        <v>0.4729166666656965</v>
+        <v>0.5597222222204437</v>
       </c>
       <c r="F17" s="2">
-        <v>0.4937500000014552</v>
+        <v>0.5805555555562023</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1160,14 +1160,14 @@
         </is>
       </c>
       <c r="J17">
-        <v>15</v>
+        <v>720</v>
       </c>
       <c r="K17">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="N17">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C18">
@@ -1188,14 +1188,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Giri motore 740. Molta corrente. Rete rap A salpata con buchi, riparati.</t>
+          <t>Giri motore 1030. Deviata la rotta l'ultimo minuto e mezzo</t>
         </is>
       </c>
       <c r="E18" s="2">
-        <v>0.5597222222204437</v>
+        <v>0.625</v>
       </c>
       <c r="F18" s="2">
-        <v>0.5805555555562023</v>
+        <v>0.6458333333321207</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1206,14 +1206,14 @@
         </is>
       </c>
       <c r="J18">
-        <v>720</v>
+        <v>20</v>
       </c>
       <c r="K18">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N18">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C19">
@@ -1234,14 +1234,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Giri motore 1030. Deviata la rotta l'ultimo minuto e mezzo</t>
+          <t>Giri motore 930. Onda da NO. Rotta spostata per la presenza di una presura sul punto 43 42,656 13 36,690.</t>
         </is>
       </c>
       <c r="E19" s="2">
-        <v>0.625</v>
+        <v>0.6930555555554747</v>
       </c>
       <c r="F19" s="2">
-        <v>0.6458333333321207</v>
+        <v>0.7138888888875954</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1255,11 +1255,11 @@
         <v>20</v>
       </c>
       <c r="K19">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="N19">
@@ -1268,11 +1268,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>45607</v>
+        <v>45603</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Giri motore 930. Onda da NO. Rotta spostata per la presenza di una presura sul punto 43 42,656 13 36,690.</t>
+          <t>cavo 90 passi (un po di più al rap A). Giri motore 930</t>
         </is>
       </c>
       <c r="E20" s="2">
-        <v>0.6930555555554747</v>
+        <v>0.2902777777781012</v>
       </c>
       <c r="F20" s="2">
-        <v>0.7138888888875954</v>
+        <v>0.2979166666664241</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1298,27 +1298,27 @@
         </is>
       </c>
       <c r="J20">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="K20">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="N20">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>45603</v>
+        <v>45608</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C21">
@@ -1326,14 +1326,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>cavo 90 passi (un po di più al rap A). Giri motore 930</t>
+          <t>Giri motore 980. Mare meno mosso. Qualche dente storto di entrambi i rapidi</t>
         </is>
       </c>
       <c r="E21" s="2">
-        <v>0.2902777777781012</v>
+        <v>0.6041666666678793</v>
       </c>
       <c r="F21" s="2">
-        <v>0.2979166666664241</v>
+        <v>0.625</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1344,27 +1344,27 @@
         </is>
       </c>
       <c r="J21">
-        <v>150</v>
+        <v>25.5</v>
       </c>
       <c r="K21">
-        <v>60</v>
+        <v>26.5</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="N21">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>45608</v>
+        <v>45601</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C22">
@@ -1372,14 +1372,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Giri motore 980. Mare meno mosso. Qualche dente storto di entrambi i rapidi</t>
+          <t>cavo 75 passi; 10 m di cavo in più al rap D. No denti (dietro margine le slitte)</t>
         </is>
       </c>
       <c r="E22" s="2">
-        <v>0.6041666666678793</v>
+        <v>0.5340277777795563</v>
       </c>
       <c r="F22" s="2">
-        <v>0.625</v>
+        <v>0.554861111111677</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1390,14 +1390,14 @@
         </is>
       </c>
       <c r="J22">
-        <v>25.5</v>
+        <v>1000</v>
       </c>
       <c r="K22">
-        <v>26.5</v>
+        <v>1200</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N22">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C23">
@@ -1418,14 +1418,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>cavo 75 passi; 10 m di cavo in più al rap D. No denti (dietro margine le slitte)</t>
+          <t>cavo 210 passi. Aggiunto 1 cm di denti. Rapido D 10 m in più di cavo</t>
         </is>
       </c>
       <c r="E23" s="2">
-        <v>0.5340277777795563</v>
+        <v>0.6736111111094942</v>
       </c>
       <c r="F23" s="2">
-        <v>0.554861111111677</v>
+        <v>0.6944444444452529</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1436,14 +1436,14 @@
         </is>
       </c>
       <c r="J23">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="K23">
-        <v>1200</v>
+        <v>26</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N23">
@@ -1452,11 +1452,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>45601</v>
+        <v>45608</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C24">
@@ -1464,14 +1464,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>cavo 210 passi. Aggiunto 1 cm di denti. Rapido D 10 m in più di cavo</t>
+          <t>Giri motore 920. Tolto coltello e ridotta durata a 20 minuti perché fondo ad Anadara. Mare mosso, 0,9 m d'onda</t>
         </is>
       </c>
       <c r="E24" s="2">
-        <v>0.6736111111094942</v>
+        <v>0.265972222223354</v>
       </c>
       <c r="F24" s="2">
-        <v>0.6944444444452529</v>
+        <v>0.2798611111102218</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1482,18 +1482,18 @@
         </is>
       </c>
       <c r="J24">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="K24">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="N24">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C25">
@@ -1510,14 +1510,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Giri motore 920. Tolto coltello e ridotta durata a 20 minuti perché fondo ad Anadara. Mare mosso, 0,9 m d'onda</t>
+          <t>Giri motore 780. Molta corrente. Mare mosso, 0,9 m d'onda. Rimessi i denti (1 linguetta)</t>
         </is>
       </c>
       <c r="E25" s="2">
-        <v>0.265972222223354</v>
+        <v>0.3138888888897782</v>
       </c>
       <c r="F25" s="2">
-        <v>0.2798611111102218</v>
+        <v>0.3347222222218988</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1528,18 +1528,18 @@
         </is>
       </c>
       <c r="J25">
-        <v>220</v>
+        <v>24.5</v>
       </c>
       <c r="K25">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="N25">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C26">
@@ -1556,14 +1556,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Giri motore 780. Molta corrente. Mare mosso, 0,9 m d'onda. Rimessi i denti (1 linguetta)</t>
+          <t>Giri motore 990. Mare mosso, 1 m d'onda. Presa come riferimento la traccia del 2023, nell'area tra la traccia del 2020 e le altre tracce ci sono molte afferrature. Non calare mai lì in mezzo !</t>
         </is>
       </c>
       <c r="E26" s="2">
-        <v>0.3138888888897782</v>
+        <v>0.4472222222211713</v>
       </c>
       <c r="F26" s="2">
-        <v>0.3347222222218988</v>
+        <v>0.4680555555569299</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1574,14 +1574,14 @@
         </is>
       </c>
       <c r="J26">
-        <v>24.5</v>
+        <v>22</v>
       </c>
       <c r="K26">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N26">
@@ -1590,11 +1590,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>45608</v>
+        <v>45601</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C27">
@@ -1602,14 +1602,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Giri motore 990. Mare mosso, 1 m d'onda. Presa come riferimento la traccia del 2023, nell'area tra la traccia del 2020 e le altre tracce ci sono molte afferrature. Non calare mai lì in mezzo !</t>
+          <t>rapA calato 5 minuti prima del D con velocità 4,5 kn. Cavo 210 passi; 10 m in più al rap A. Cala conclusa 5 minuti prima perché superate le tracce dei survey precedenti avendo perso tempo all'inizio per sistemare rete rap D</t>
         </is>
       </c>
       <c r="E27" s="2">
-        <v>0.4472222222211713</v>
+        <v>0.7180555555569299</v>
       </c>
       <c r="F27" s="2">
-        <v>0.4680555555569299</v>
+        <v>0.7354166666664241</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1620,27 +1620,27 @@
         </is>
       </c>
       <c r="J27">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K27">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="N27">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>45601</v>
+        <v>45610</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C28">
@@ -1648,14 +1648,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rapA calato 5 minuti prima del D con velocità 4,5 kn. Cavo 210 passi; 10 m in più al rap A. Cala conclusa 5 minuti prima perché superate le tracce dei survey precedenti avendo perso tempo all'inizio per sistemare rete rap D</t>
+          <t>Cavo 90 passi giri motore 1070.</t>
         </is>
       </c>
       <c r="E28" s="2">
-        <v>0.7180555555569299</v>
+        <v>0.3527777777781012</v>
       </c>
       <c r="F28" s="2">
-        <v>0.7354166666664241</v>
+        <v>0.3736111111102218</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1666,27 +1666,27 @@
         </is>
       </c>
       <c r="J28">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K28">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N28">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>45610</v>
+        <v>45608</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C29">
@@ -1694,14 +1694,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cavo 90 passi giri motore 1070.</t>
+          <t>Giri motore 1050. Mare mosso, onda da 1 m. Rap A salpato storto</t>
         </is>
       </c>
       <c r="E29" s="2">
-        <v>0.3527777777781012</v>
+        <v>0.4048611111102218</v>
       </c>
       <c r="F29" s="2">
-        <v>0.3736111111102218</v>
+        <v>0.4256944444459805</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1712,14 +1712,14 @@
         </is>
       </c>
       <c r="J29">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="N29">
@@ -1728,11 +1728,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>45608</v>
+        <v>45604</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30">
@@ -1740,14 +1740,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Giri motore 1050. Mare mosso, onda da 1 m. Rap A salpato storto</t>
+          <t>cavo 90 passi (un po' di più al rap A). Giri motore 960. Sentita botta dopo 6 minuti di cala: rap D presi pezzi di tronchi, storto solo qualche dente. Ore 15:22 avvistati segnali reti da posta lungo il percorso, cambio rotta a 340°, tenuta questa rotta per il resto della cala.</t>
         </is>
       </c>
       <c r="E30" s="2">
-        <v>0.4048611111102218</v>
+        <v>0.632638888888323</v>
       </c>
       <c r="F30" s="2">
-        <v>0.4256944444459805</v>
+        <v>0.6534722222204437</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1758,14 +1758,14 @@
         </is>
       </c>
       <c r="J30">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="K30">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N30">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C31">
@@ -1786,14 +1786,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>cavo 90 passi (un po' di più al rap A). Giri motore 960. Sentita botta dopo 6 minuti di cala: rap D presi pezzi di tronchi, storto solo qualche dente. Ore 15:22 avvistati segnali reti da posta lungo il percorso, cambio rotta a 340°, tenuta questa rotta per il resto della cala.</t>
+          <t>cavo 75 passi (di più al rap A). Giri motore 890. Rap A raddrizzato coltello dopo la cala</t>
         </is>
       </c>
       <c r="E31" s="2">
-        <v>0.632638888888323</v>
+        <v>0.3340277777788287</v>
       </c>
       <c r="F31" s="2">
-        <v>0.6534722222204437</v>
+        <v>0.3548611111109494</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1804,14 +1804,14 @@
         </is>
       </c>
       <c r="J31">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="K31">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="N31">
@@ -1820,11 +1820,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>45604</v>
+        <v>45603</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C32">
@@ -1832,14 +1832,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>cavo 75 passi (di più al rap A). Giri motore 890. Rap A raddrizzato coltello dopo la cala</t>
+          <t>cavo 90 passi. Denti fatti sporgere di una linguetta. Cala serale. Giri motore 850, molta corrente. Vivaio non segnalato: 45 29,238 12 46,539; 45 28,897 12 45,908; 45 28,631 12 46,199; 45 29,048 12 46,710</t>
         </is>
       </c>
       <c r="E32" s="2">
-        <v>0.3340277777788287</v>
+        <v>0.7479166666671517</v>
       </c>
       <c r="F32" s="2">
-        <v>0.3548611111109494</v>
+        <v>0.7687499999992724</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1850,14 +1850,14 @@
         </is>
       </c>
       <c r="J32">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="N32">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C33">
@@ -1878,14 +1878,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>cavo 90 passi. Denti fatti sporgere di una linguetta. Cala serale. Giri motore 850, molta corrente. Vivaio non segnalato: 45 29,238 12 46,539; 45 28,897 12 45,908; 45 28,631 12 46,199; 45 29,048 12 46,710</t>
+          <t>cavo 90 passi (un po più cavo al rap A). Giri al motore 940. Denti spostati a filo con le slitte.</t>
         </is>
       </c>
       <c r="E33" s="2">
-        <v>0.7479166666671517</v>
+        <v>0.4319444444445253</v>
       </c>
       <c r="F33" s="2">
-        <v>0.7687499999992724</v>
+        <v>0.4361111111102218</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1896,18 +1896,18 @@
         </is>
       </c>
       <c r="J33">
-        <v>46</v>
+        <v>1070</v>
       </c>
       <c r="K33">
-        <v>30</v>
+        <v>820</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="N33">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="C34">
@@ -1924,14 +1924,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>cavo 90 passi (un po più cavo al rap A). Giri al motore 940. Denti spostati a filo con le slitte.</t>
+          <t>cavo 90 passi (un po' di più al rap a). Giri motore 890</t>
         </is>
       </c>
       <c r="E34" s="2">
-        <v>0.4319444444445253</v>
+        <v>0.4756944444452529</v>
       </c>
       <c r="F34" s="2">
-        <v>0.4361111111102218</v>
+        <v>0.4791666666678793</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1942,27 +1942,27 @@
         </is>
       </c>
       <c r="J34">
-        <v>1070</v>
+        <v>650</v>
       </c>
       <c r="K34">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>/</t>
         </is>
       </c>
       <c r="N34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>45bis</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C35">
@@ -1970,14 +1970,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>cavo 90 passi (un po' di più al rap a). Giri motore 890</t>
+          <t>cavo 200 giri 930</t>
         </is>
       </c>
       <c r="E35" s="2">
-        <v>0.4756944444452529</v>
+        <v>0.2958333333335759</v>
       </c>
       <c r="F35" s="2">
-        <v>0.4791666666678793</v>
+        <v>0.3166666666656965</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1988,18 +1988,18 @@
         </is>
       </c>
       <c r="J35">
-        <v>650</v>
+        <v>92</v>
       </c>
       <c r="K35">
-        <v>850</v>
+        <v>70</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C36">
@@ -2016,14 +2016,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>cavo 200 giri 930</t>
+          <t>cavo 120 passi giri motore 910</t>
         </is>
       </c>
       <c r="E36" s="2">
-        <v>0.2958333333335759</v>
+        <v>0.5743055555540195</v>
       </c>
       <c r="F36" s="2">
-        <v>0.3166666666656965</v>
+        <v>0.6159722222218988</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2034,27 +2034,27 @@
         </is>
       </c>
       <c r="J36">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K36">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="N36">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>45605</v>
+        <v>45607</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C37">
@@ -2062,14 +2062,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>cavo 120 passi giri motore 910</t>
+          <t>cavo 75 passi. Giri motore 920. Mare mosso 0.9-1 m d'onda.</t>
         </is>
       </c>
       <c r="E37" s="2">
-        <v>0.5743055555540195</v>
+        <v>0.2694444444459805</v>
       </c>
       <c r="F37" s="2">
-        <v>0.6159722222218988</v>
+        <v>0.297222222223354</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2080,27 +2080,27 @@
         </is>
       </c>
       <c r="J37">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>45607</v>
+        <v>45601</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C38">
@@ -2108,14 +2108,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>cavo 75 passi. Giri motore 920. Mare mosso 0.9-1 m d'onda.</t>
+          <t>cavo 120 passi. No denti.</t>
         </is>
       </c>
       <c r="E38" s="2">
-        <v>0.2694444444459805</v>
+        <v>0.6145833333321207</v>
       </c>
       <c r="F38" s="2">
-        <v>0.297222222223354</v>
+        <v>0.6354166666678793</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2126,27 +2126,27 @@
         </is>
       </c>
       <c r="J38">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="K38">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="N38">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>45601</v>
+        <v>45604</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C39">
@@ -2154,14 +2154,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>cavo 120 passi. No denti.</t>
+          <t>cavo 135 passi (un po' di più al rap A). Giri motore 860. Cambi di rotta lungo la traccia per evitare di concludera la strascicata su punto critico (rotta iniziale 121°, modificata a 110°, poi impostata a 125°, infine modificata a 111°</t>
         </is>
       </c>
       <c r="E39" s="2">
-        <v>0.6145833333321207</v>
+        <v>0.4090277777795563</v>
       </c>
       <c r="F39" s="2">
-        <v>0.6354166666678793</v>
+        <v>0.429861111111677</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2172,14 +2172,14 @@
         </is>
       </c>
       <c r="J39">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="K39">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N39">
@@ -2188,11 +2188,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>45604</v>
+        <v>45610</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C40">
@@ -2200,14 +2200,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>cavo 135 passi (un po' di più al rap A). Giri motore 860. Cambi di rotta lungo la traccia per evitare di concludera la strascicata su punto critico (rotta iniziale 121°, modificata a 110°, poi impostata a 125°, infine modificata a 111°</t>
+          <t>Cavo 250 passi giri motore 1080.  Fatta deviazione a inizio cala per evitare peschereccio</t>
         </is>
       </c>
       <c r="E40" s="2">
-        <v>0.4090277777795563</v>
+        <v>0.3152777777795563</v>
       </c>
       <c r="F40" s="2">
-        <v>0.429861111111677</v>
+        <v>0.336111111111677</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2218,14 +2218,14 @@
         </is>
       </c>
       <c r="J40">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="K40">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="N40">
@@ -2234,11 +2234,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>45610</v>
+        <v>45602</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C41">
@@ -2246,14 +2246,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cavo 250 passi giri motore 1080.  Fatta deviazione a inizio cala per evitare peschereccio</t>
+          <t>cavo 135 passi, più  abbondante per il rap A. Cala serale. Durata ridotta per completare la programmazione giornaliera. Giri motore 930.</t>
         </is>
       </c>
       <c r="E41" s="2">
-        <v>0.3152777777795563</v>
+        <v>0.78125</v>
       </c>
       <c r="F41" s="2">
-        <v>0.336111111111677</v>
+        <v>0.7916666666678793</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2264,18 +2264,18 @@
         </is>
       </c>
       <c r="J41">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="K41">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="N41">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C42">
@@ -2292,14 +2292,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>cavo 135 passi, più  abbondante per il rap A. Cala serale. Durata ridotta per completare la programmazione giornaliera. Giri motore 930.</t>
+          <t>cavo 165 passi, qualche metro in più a rap A. aumentato num di giri motore (890) per tenere la velocità. Rete rap A ricucita in alcuni punti</t>
         </is>
       </c>
       <c r="E42" s="2">
-        <v>0.78125</v>
+        <v>0.3493055555554747</v>
       </c>
       <c r="F42" s="2">
-        <v>0.7916666666678793</v>
+        <v>0.359722222223354</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2310,14 +2310,14 @@
         </is>
       </c>
       <c r="J42">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="K42">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N42">
@@ -2326,11 +2326,11 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>45602</v>
+        <v>45606</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C43">
@@ -2338,14 +2338,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>cavo 165 passi, qualche metro in più a rap A. aumentato num di giri motore (890) per tenere la velocità. Rete rap A ricucita in alcuni punti</t>
+          <t>cavo 180  passi giri motore  910 nuova traccia del 2023 preso cavo d acciaio sul rapido D commerciale valido ma discar e litter presi dal rapido A</t>
         </is>
       </c>
       <c r="E43" s="2">
-        <v>0.3493055555554747</v>
+        <v>0.3368055555547471</v>
       </c>
       <c r="F43" s="2">
-        <v>0.359722222223354</v>
+        <v>0.3576388888905058</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2356,27 +2356,27 @@
         </is>
       </c>
       <c r="J43">
-        <v>148</v>
+        <v>19.9</v>
       </c>
       <c r="K43">
-        <v>410</v>
+        <v>10.9</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="N43">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>45606</v>
+        <v>45604</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C44">
@@ -2384,14 +2384,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>cavo 180  passi giri motore  910 nuova traccia del 2023 preso cavo d acciaio sul rapido D commerciale valido ma discar e litter presi dal rapido A</t>
+          <t>cavo 90 passi (di più al rap A). Giri motore 890. Corretta la posizione alle 7:15 accostandoci alle tracce precedenti. Traccia interrotta in ritardo, prosegue più  del dovuto.</t>
         </is>
       </c>
       <c r="E44" s="2">
-        <v>0.3368055555547471</v>
+        <v>0.2958333333335759</v>
       </c>
       <c r="F44" s="2">
-        <v>0.3576388888905058</v>
+        <v>0.3173611111124046</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2402,27 +2402,27 @@
         </is>
       </c>
       <c r="J44">
-        <v>19.9</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>10.9</v>
+        <v>30</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="N44">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>45604</v>
+        <v>45602</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C45">
@@ -2430,14 +2430,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>cavo 90 passi (di più al rap A). Giri motore 890. Corretta la posizione alle 7:15 accostandoci alle tracce precedenti. Traccia interrotta in ritardo, prosegue più  del dovuto.</t>
+          <t>cavo 120 passi, più  lungo quello del rap A. Giri motore 900. Durata della cala ridotta per completare il programma della giornata. Cala dopo il tramonto</t>
         </is>
       </c>
       <c r="E45" s="2">
-        <v>0.2958333333335759</v>
+        <v>0.7368055555562023</v>
       </c>
       <c r="F45" s="2">
-        <v>0.3173611111124046</v>
+        <v>0.7479166666671517</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2448,27 +2448,27 @@
         </is>
       </c>
       <c r="J45">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="K45">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="N45">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C46">
@@ -2476,14 +2476,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>cavo 120 passi, più  lungo quello del rap A. Giri motore 900. Durata della cala ridotta per completare il programma della giornata. Cala dopo il tramonto</t>
+          <t>cavo 135 passi (di più al rap A). Giri motore 880</t>
         </is>
       </c>
       <c r="E46" s="2">
-        <v>0.7368055555562023</v>
+        <v>0.4631944444445253</v>
       </c>
       <c r="F46" s="2">
-        <v>0.7479166666671517</v>
+        <v>0.484027777776646</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2494,27 +2494,27 @@
         </is>
       </c>
       <c r="J46">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K46">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="N46">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>45604</v>
+        <v>45602</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C47">
@@ -2522,14 +2522,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>cavo 135 passi (di più al rap A). Giri motore 880</t>
+          <t>cavo 165 passi, qualche metro in più a rap A. Aggiunta mezza linguetta ai denti.</t>
         </is>
       </c>
       <c r="E47" s="2">
-        <v>0.4631944444445253</v>
+        <v>0.5798611111094942</v>
       </c>
       <c r="F47" s="2">
-        <v>0.484027777776646</v>
+        <v>0.6027777777781012</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2540,27 +2540,27 @@
         </is>
       </c>
       <c r="J47">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="N47">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>45602</v>
+        <v>45605</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C48">
@@ -2568,14 +2568,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>cavo 165 passi, qualche metro in più a rap A. Aggiunta mezza linguetta ai denti.</t>
+          <t>cavo 135 passi giri motore 870</t>
         </is>
       </c>
       <c r="E48" s="2">
-        <v>0.5798611111094942</v>
+        <v>0.4736111111124046</v>
       </c>
       <c r="F48" s="2">
-        <v>0.6027777777781012</v>
+        <v>0.4944444444445253</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2586,27 +2586,27 @@
         </is>
       </c>
       <c r="J48">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="K48">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="N48">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>45605</v>
+        <v>45602</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49">
@@ -2614,14 +2614,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>cavo 135 passi giri motore 870</t>
+          <t>cavo 135 passi, qualche metro in più al rap A. Giri motore 920. Durata ridotta per completare le stazioni della giornata</t>
         </is>
       </c>
       <c r="E49" s="2">
-        <v>0.4736111111124046</v>
+        <v>0.7048611111094942</v>
       </c>
       <c r="F49" s="2">
-        <v>0.4944444444445253</v>
+        <v>0.7159722222204437</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2632,18 +2632,18 @@
         </is>
       </c>
       <c r="J49">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="K49">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="N49">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C50">
@@ -2660,14 +2660,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>cavo 135 passi, qualche metro in più al rap A. Giri motore 920. Durata ridotta per completare le stazioni della giornata</t>
+          <t>giri motore 890</t>
         </is>
       </c>
       <c r="E50" s="2">
-        <v>0.7048611111094942</v>
+        <v>0.3930555555562023</v>
       </c>
       <c r="F50" s="2">
-        <v>0.7159722222204437</v>
+        <v>0.4041666666671517</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2678,14 +2678,14 @@
         </is>
       </c>
       <c r="J50">
-        <v>228</v>
+        <v>450</v>
       </c>
       <c r="K50">
-        <v>220</v>
+        <v>610</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="N50">
@@ -2694,11 +2694,11 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>45602</v>
+        <v>45605</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C51">
@@ -2706,14 +2706,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>giri motore 890</t>
+          <t>cavo 120 passi giri motore 930</t>
         </is>
       </c>
       <c r="E51" s="2">
-        <v>0.3930555555562023</v>
+        <v>0.6201388888875954</v>
       </c>
       <c r="F51" s="2">
-        <v>0.4041666666671517</v>
+        <v>0.640972222223354</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2724,18 +2724,18 @@
         </is>
       </c>
       <c r="J51">
-        <v>450</v>
+        <v>14</v>
       </c>
       <c r="K51">
-        <v>610</v>
+        <v>24</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="N51">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C52">
@@ -2752,14 +2752,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>cavo 120 passi giri motore 930</t>
+          <t>cavo 150 passi giri motore 950</t>
         </is>
       </c>
       <c r="E52" s="2">
-        <v>0.6201388888875954</v>
+        <v>0.648611111111677</v>
       </c>
       <c r="F52" s="2">
-        <v>0.640972222223354</v>
+        <v>0.6694444444437977</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2770,14 +2770,14 @@
         </is>
       </c>
       <c r="J52">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="K52">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="N52">
@@ -2786,11 +2786,11 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>45605</v>
+        <v>45607</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C53">
@@ -2798,14 +2798,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>cavo 150 passi giri motore 950</t>
+          <t>cavo 90 passi giri motore tirati solo 15 minuti per evitare saccate troppo grosse</t>
         </is>
       </c>
       <c r="E53" s="2">
-        <v>0.648611111111677</v>
+        <v>0.5486111111094942</v>
       </c>
       <c r="F53" s="2">
-        <v>0.6694444444437977</v>
+        <v>0.5590277777773736</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2816,18 +2816,18 @@
         </is>
       </c>
       <c r="J53">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="K53">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="N53">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C54">
@@ -2844,14 +2844,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>cavo 90 passi giri motore tirati solo 15 minuti per evitare saccate troppo grosse</t>
+          <t>cavo 60 passi giri motore 850 cala ridotta a 15 minuti per evitare danni ai rapidi</t>
         </is>
       </c>
       <c r="E54" s="2">
-        <v>0.5486111111094942</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0.5590277777773736</v>
+        <v>0.5972222222226264</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2862,14 +2859,14 @@
         </is>
       </c>
       <c r="J54">
-        <v>244</v>
+        <v>18.1</v>
       </c>
       <c r="K54">
-        <v>102</v>
+        <v>25.5</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="N54">
@@ -2882,7 +2879,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C55">
@@ -2890,11 +2887,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>cavo 60 passi giri motore 850 cala ridotta a 15 minuti per evitare danni ai rapidi</t>
+          <t>cavo 90 passi giri motore 800 ridotto a 15 per evitare saccate troppo grosse</t>
         </is>
       </c>
       <c r="E55" s="2">
-        <v>0.5972222222226264</v>
+        <v>0.6736111111094942</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2905,14 +2902,14 @@
         </is>
       </c>
       <c r="J55">
-        <v>18.1</v>
+        <v>98</v>
       </c>
       <c r="K55">
-        <v>25.5</v>
+        <v>60</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="N55">
@@ -2921,11 +2918,11 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>45607</v>
+        <v>45601</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C56">
@@ -2933,11 +2930,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>cavo 90 passi giri motore 800 ridotto a 15 per evitare saccate troppo grosse</t>
+          <t>cavo 90 passi; 10 m in più al rap D. No denti (dietro margine slitte)</t>
         </is>
       </c>
       <c r="E56" s="2">
-        <v>0.6736111111094942</v>
+        <v>0.4756944444452529</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.4965277777773736</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2948,27 +2948,27 @@
         </is>
       </c>
       <c r="J56">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="K56">
-        <v>60</v>
+        <v>666</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="N56">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>45601</v>
+        <v>45608</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C57">
@@ -2976,14 +2976,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>cavo 90 passi; 10 m in più al rap D. No denti (dietro margine slitte)</t>
+          <t>Giri motore 1040. Mare mosso, 1 m d'onda.</t>
         </is>
       </c>
       <c r="E57" s="2">
-        <v>0.4756944444452529</v>
+        <v>0.3555555555540195</v>
       </c>
       <c r="F57" s="2">
-        <v>0.4965277777773736</v>
+        <v>0.3763888888897782</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2994,14 +2994,14 @@
         </is>
       </c>
       <c r="J57">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="K57">
-        <v>666</v>
+        <v>21.7</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="N57">
@@ -3010,11 +3010,11 @@
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C58">
@@ -3022,14 +3022,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Giri motore 1040. Mare mosso, 1 m d'onda.</t>
+          <t>Cavo 90 passi giri motore 1040. Il rapido A ha dato uno scossone in cala. Salpato prima per presenza area di scarico materiali portuali.</t>
         </is>
       </c>
       <c r="E58" s="2">
-        <v>0.3555555555540195</v>
+        <v>0.257638888888323</v>
       </c>
       <c r="F58" s="2">
-        <v>0.3763888888897782</v>
+        <v>0.2763888888875954</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3040,27 +3040,27 @@
         </is>
       </c>
       <c r="J58">
-        <v>54</v>
+        <v>336</v>
       </c>
       <c r="K58">
-        <v>21.7</v>
+        <v>382</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N58">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>45610</v>
+        <v>45609</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C59">
@@ -3068,14 +3068,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cavo 90 passi giri motore 1040. Il rapido A ha dato uno scossone in cala. Salpato prima per presenza area di scarico materiali portuali.</t>
+          <t>cavo 270 passi giri motore 960</t>
         </is>
       </c>
       <c r="E59" s="2">
-        <v>0.257638888888323</v>
+        <v>0.2361111111094942</v>
       </c>
       <c r="F59" s="2">
-        <v>0.2763888888875954</v>
+        <v>0.2569444444452529</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -3086,18 +3086,18 @@
         </is>
       </c>
       <c r="J59">
-        <v>336</v>
+        <v>29.2</v>
       </c>
       <c r="K59">
-        <v>382</v>
+        <v>23.2</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="N59">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C60">
@@ -3114,14 +3114,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>cavo 270 passi giri motore 960</t>
+          <t>Cavo 105 passi giri motore 800</t>
         </is>
       </c>
       <c r="E60" s="2">
-        <v>0.2361111111094942</v>
+        <v>0.2763888888875954</v>
       </c>
       <c r="F60" s="2">
-        <v>0.2569444444452529</v>
+        <v>0.297222222223354</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -3132,14 +3132,14 @@
         </is>
       </c>
       <c r="J60">
-        <v>29.2</v>
+        <v>14.5</v>
       </c>
       <c r="K60">
-        <v>23.2</v>
+        <v>12</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="N60">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C61">
@@ -3160,14 +3160,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cavo 105 passi giri motore 800</t>
+          <t>Cavo 90 giri motore 800 Rotta modificata per presenza nuovo vivaio cozze</t>
         </is>
       </c>
       <c r="E61" s="2">
-        <v>0.2763888888875954</v>
+        <v>0.3777777777795563</v>
       </c>
       <c r="F61" s="2">
-        <v>0.297222222223354</v>
+        <v>0.398611111111677</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -3178,14 +3178,14 @@
         </is>
       </c>
       <c r="J61">
-        <v>14.5</v>
+        <v>5.6</v>
       </c>
       <c r="K61">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="N61">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C62">
@@ -3206,14 +3206,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Cavo 90 giri motore 800 Rotta modificata per presenza nuovo vivaio cozze</t>
+          <t>Cavo 330 passi giri motore 900</t>
         </is>
       </c>
       <c r="E62" s="2">
-        <v>0.3777777777795563</v>
+        <v>0.4618055555547471</v>
       </c>
       <c r="F62" s="2">
-        <v>0.398611111111677</v>
+        <v>0.4826388888905058</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3224,14 +3224,14 @@
         </is>
       </c>
       <c r="J62">
-        <v>5.6</v>
+        <v>120</v>
       </c>
       <c r="K62">
-        <v>8.5</v>
+        <v>112</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="N62">
@@ -3244,22 +3244,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Cavo 330 passi giri motore 900</t>
-        </is>
-      </c>
       <c r="E63" s="2">
-        <v>0.4618055555547471</v>
+        <v>0.5333333333328483</v>
       </c>
       <c r="F63" s="2">
-        <v>0.4826388888905058</v>
+        <v>0.5541666666649689</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3270,14 +3265,14 @@
         </is>
       </c>
       <c r="J63">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="K63">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N63">
@@ -3290,17 +3285,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>cavo 90 passi giri 840 preso segnale</t>
+        </is>
+      </c>
       <c r="E64" s="2">
-        <v>0.5333333333328483</v>
+        <v>0.586111111111677</v>
       </c>
       <c r="F64" s="2">
-        <v>0.5541666666649689</v>
+        <v>14.33000000000175</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -3311,18 +3311,18 @@
         </is>
       </c>
       <c r="J64">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K64">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N64">
-        <v>30</v>
+        <v>13.74388888888889</v>
       </c>
     </row>
     <row r="65">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C65">
@@ -3339,14 +3339,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>cavo 90 passi giri 840 preso segnale</t>
+          <t>cavo 250 giri 900</t>
         </is>
       </c>
       <c r="E65" s="2">
-        <v>0.586111111111677</v>
+        <v>0.663888888888323</v>
       </c>
       <c r="F65" s="2">
-        <v>14.33000000000175</v>
+        <v>0.6847222222204437</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -3357,18 +3357,18 @@
         </is>
       </c>
       <c r="J65">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K65">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N65">
-        <v>13.74388888888889</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
@@ -3377,22 +3377,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>cavo 250 giri 900</t>
-        </is>
-      </c>
       <c r="E66" s="2">
-        <v>0.663888888888323</v>
+        <v>0.7201388888897782</v>
       </c>
       <c r="F66" s="2">
-        <v>0.6847222222204437</v>
+        <v>0.7409722222218988</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -3403,14 +3398,14 @@
         </is>
       </c>
       <c r="J66">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K66">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="N66">
@@ -3419,21 +3414,26 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>45609</v>
+        <v>45605</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>cavo 60 passi giri motore 910</t>
+        </is>
+      </c>
       <c r="E67" s="2">
-        <v>0.7201388888897782</v>
+        <v>0.3993055555547471</v>
       </c>
       <c r="F67" s="2">
-        <v>0.7409722222218988</v>
+        <v>0.4201388888905058</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -3444,14 +3444,14 @@
         </is>
       </c>
       <c r="J67">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="K67">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N67">
@@ -3460,11 +3460,11 @@
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C68">
@@ -3472,14 +3472,14 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>cavo 60 passi giri motore 910</t>
+          <t>Giri motore 1000</t>
         </is>
       </c>
       <c r="E68" s="2">
-        <v>0.3993055555547471</v>
+        <v>0.5166666666664241</v>
       </c>
       <c r="F68" s="2">
-        <v>0.4201388888905058</v>
+        <v>0.5374999999985448</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -3490,63 +3490,17 @@
         </is>
       </c>
       <c r="J68">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K68">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="N68">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2">
-        <v>45604</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C69">
-        <v>68</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Giri motore 1000</t>
-        </is>
-      </c>
-      <c r="E69" s="2">
-        <v>0.5166666666664241</v>
-      </c>
-      <c r="F69" s="2">
-        <v>0.5374999999985448</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="J69">
-        <v>68</v>
-      </c>
-      <c r="K69">
-        <v>78</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="N69">
         <v>30</v>
       </c>
     </row>
